--- a/reports/_HAPAG LIOYD AG_SUMMIT ALLIANCE PORT LIMITED (OCL)_container_report_2018-12-03_54_.xlsx
+++ b/reports/_HAPAG LIOYD AG_SUMMIT ALLIANCE PORT LIMITED (OCL)_container_report_2018-12-03_54_.xlsx
@@ -105,13 +105,36 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="5"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="6.856179775280899" hidden="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.4561797752809"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="23.0561797752809"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="26.6561797752809"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="28.4561797752809"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="8.656179775280899"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="19.4561797752809"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="30.2561797752809"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="33.8561797752809"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="15.8561797752809"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="10.4561797752809"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="23.0561797752809"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="23.0561797752809"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="28.4561797752809"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="21.2561797752809"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="19.4561797752809"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -142,8 +165,130 @@
         </is>
       </c>
     </row>
-    <row ht="16" customHeight="true" r="5">
+    <row r="5">
       <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>SL #</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>Container Number</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>Container Size</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>Container Type</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>Current Depot Unit</t>
+        </is>
+      </c>
+      <c r="G5" s="3" t="inlineStr">
+        <is>
+          <t>Permitted Depot Unit</t>
+        </is>
+      </c>
+      <c r="H5" s="3" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="I5" s="3" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="J5" s="3" t="inlineStr">
+        <is>
+          <t>Source Location</t>
+        </is>
+      </c>
+      <c r="K5" s="3" t="inlineStr">
+        <is>
+          <t>Import Vessel Name</t>
+        </is>
+      </c>
+      <c r="L5" s="3" t="inlineStr">
+        <is>
+          <t>Import Rotation Number</t>
+        </is>
+      </c>
+      <c r="M5" s="3" t="inlineStr">
+        <is>
+          <t>Gate In Date</t>
+        </is>
+      </c>
+      <c r="N5" s="3" t="inlineStr">
+        <is>
+          <t>Container Condition Name</t>
+        </is>
+      </c>
+      <c r="O5" s="3" t="inlineStr">
+        <is>
+          <t>Di Agent</t>
+        </is>
+      </c>
+      <c r="P5" s="3" t="inlineStr">
+        <is>
+          <t>Di Mlo</t>
+        </is>
+      </c>
+      <c r="Q5" s="3" t="inlineStr">
+        <is>
+          <t>Di Date</t>
+        </is>
+      </c>
+      <c r="R5" s="3" t="inlineStr">
+        <is>
+          <t>Remarks</t>
+        </is>
+      </c>
+      <c r="S5" s="3" t="inlineStr">
+        <is>
+          <t>Damage Area Name</t>
+        </is>
+      </c>
+      <c r="T5" s="3" t="inlineStr">
+        <is>
+          <t>Damage Part Name</t>
+        </is>
+      </c>
+      <c r="U5" s="3" t="inlineStr">
+        <is>
+          <t>Damage Description</t>
+        </is>
+      </c>
+      <c r="V5" s="3" t="inlineStr">
+        <is>
+          <t>Damage Component</t>
+        </is>
+      </c>
+      <c r="W5" s="3" t="inlineStr">
+        <is>
+          <t>Damage Type</t>
+        </is>
+      </c>
+      <c r="X5" s="3" t="inlineStr">
+        <is>
+          <t>Repair Type</t>
+        </is>
+      </c>
+    </row>
+    <row ht="16" customHeight="true" r="6">
+      <c r="A6" s="3" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -331,13 +476,43 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="5"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="6.856179775280899" hidden="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.4561797752809"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="23.0561797752809"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="26.6561797752809"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="28.4561797752809"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="8.656179775280899"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="19.4561797752809"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="30.2561797752809"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="33.8561797752809"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="21.2561797752809"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="30.2561797752809"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="19.4561797752809"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="14.0561797752809"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="6.856179775280899"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="10.4561797752809"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="15.8561797752809"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="10.4561797752809"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -368,8 +543,165 @@
         </is>
       </c>
     </row>
-    <row ht="16" customHeight="true" r="5">
+    <row r="5">
       <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>SL #</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>Container Number</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>Container Size</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>Container Type</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>Current Depot Unit</t>
+        </is>
+      </c>
+      <c r="G5" s="3" t="inlineStr">
+        <is>
+          <t>Permitted Depot Unit</t>
+        </is>
+      </c>
+      <c r="H5" s="3" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="I5" s="3" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="J5" s="3" t="inlineStr">
+        <is>
+          <t>Source Location</t>
+        </is>
+      </c>
+      <c r="K5" s="3" t="inlineStr">
+        <is>
+          <t>Import Vessel Name</t>
+        </is>
+      </c>
+      <c r="L5" s="3" t="inlineStr">
+        <is>
+          <t>Import Rotation Number</t>
+        </is>
+      </c>
+      <c r="M5" s="3" t="inlineStr">
+        <is>
+          <t>Gate In Date</t>
+        </is>
+      </c>
+      <c r="N5" s="3" t="inlineStr">
+        <is>
+          <t>Container Condition Name</t>
+        </is>
+      </c>
+      <c r="O5" s="3" t="inlineStr">
+        <is>
+          <t>Destination Location</t>
+        </is>
+      </c>
+      <c r="P5" s="3" t="inlineStr">
+        <is>
+          <t>Export Vessel Name</t>
+        </is>
+      </c>
+      <c r="Q5" s="3" t="inlineStr">
+        <is>
+          <t>Export Rotation Number</t>
+        </is>
+      </c>
+      <c r="R5" s="3" t="inlineStr">
+        <is>
+          <t>Stuffing Date</t>
+        </is>
+      </c>
+      <c r="S5" s="3" t="inlineStr">
+        <is>
+          <t>Gate Out Date</t>
+        </is>
+      </c>
+      <c r="T5" s="3" t="inlineStr">
+        <is>
+          <t>Eir Number</t>
+        </is>
+      </c>
+      <c r="U5" s="3" t="inlineStr">
+        <is>
+          <t>Seal No</t>
+        </is>
+      </c>
+      <c r="V5" s="3" t="inlineStr">
+        <is>
+          <t>Commodity</t>
+        </is>
+      </c>
+      <c r="W5" s="3" t="inlineStr">
+        <is>
+          <t>Vat</t>
+        </is>
+      </c>
+      <c r="X5" s="3" t="inlineStr">
+        <is>
+          <t>Cbm</t>
+        </is>
+      </c>
+      <c r="Y5" s="3" t="inlineStr">
+        <is>
+          <t>Weight</t>
+        </is>
+      </c>
+      <c r="Z5" s="3" t="inlineStr">
+        <is>
+          <t>Account</t>
+        </is>
+      </c>
+      <c r="AA5" s="3" t="inlineStr">
+        <is>
+          <t>Forwarder</t>
+        </is>
+      </c>
+      <c r="AB5" s="3" t="inlineStr">
+        <is>
+          <t>Di Agent</t>
+        </is>
+      </c>
+      <c r="AC5" s="3" t="inlineStr">
+        <is>
+          <t>Di Mlo</t>
+        </is>
+      </c>
+      <c r="AD5" s="3" t="inlineStr">
+        <is>
+          <t>Di Date</t>
+        </is>
+      </c>
+      <c r="AE5" s="3" t="inlineStr">
+        <is>
+          <t>Remarks</t>
+        </is>
+      </c>
+    </row>
+    <row ht="16" customHeight="true" r="6">
+      <c r="A6" s="3" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -557,13 +889,43 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="5"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="6.856179775280899" hidden="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.4561797752809"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="23.0561797752809"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="26.6561797752809"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="28.4561797752809"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="8.656179775280899"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="19.4561797752809"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="30.2561797752809"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="33.8561797752809"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="21.2561797752809"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="30.2561797752809"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="19.4561797752809"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="14.0561797752809"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="6.856179775280899"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="10.4561797752809"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="15.8561797752809"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="10.4561797752809"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -594,8 +956,165 @@
         </is>
       </c>
     </row>
-    <row ht="16" customHeight="true" r="5">
+    <row r="5">
       <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>SL #</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>Container Number</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>Container Size</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>Container Type</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>Current Depot Unit</t>
+        </is>
+      </c>
+      <c r="G5" s="3" t="inlineStr">
+        <is>
+          <t>Permitted Depot Unit</t>
+        </is>
+      </c>
+      <c r="H5" s="3" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="I5" s="3" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="J5" s="3" t="inlineStr">
+        <is>
+          <t>Source Location</t>
+        </is>
+      </c>
+      <c r="K5" s="3" t="inlineStr">
+        <is>
+          <t>Import Vessel Name</t>
+        </is>
+      </c>
+      <c r="L5" s="3" t="inlineStr">
+        <is>
+          <t>Import Rotation Number</t>
+        </is>
+      </c>
+      <c r="M5" s="3" t="inlineStr">
+        <is>
+          <t>Gate In Date</t>
+        </is>
+      </c>
+      <c r="N5" s="3" t="inlineStr">
+        <is>
+          <t>Container Condition Name</t>
+        </is>
+      </c>
+      <c r="O5" s="3" t="inlineStr">
+        <is>
+          <t>Destination Location</t>
+        </is>
+      </c>
+      <c r="P5" s="3" t="inlineStr">
+        <is>
+          <t>Export Vessel Name</t>
+        </is>
+      </c>
+      <c r="Q5" s="3" t="inlineStr">
+        <is>
+          <t>Export Rotation Number</t>
+        </is>
+      </c>
+      <c r="R5" s="3" t="inlineStr">
+        <is>
+          <t>Stuffing Date</t>
+        </is>
+      </c>
+      <c r="S5" s="3" t="inlineStr">
+        <is>
+          <t>Gate Out Date</t>
+        </is>
+      </c>
+      <c r="T5" s="3" t="inlineStr">
+        <is>
+          <t>Eir Number</t>
+        </is>
+      </c>
+      <c r="U5" s="3" t="inlineStr">
+        <is>
+          <t>Seal No</t>
+        </is>
+      </c>
+      <c r="V5" s="3" t="inlineStr">
+        <is>
+          <t>Commodity</t>
+        </is>
+      </c>
+      <c r="W5" s="3" t="inlineStr">
+        <is>
+          <t>Vat</t>
+        </is>
+      </c>
+      <c r="X5" s="3" t="inlineStr">
+        <is>
+          <t>Cbm</t>
+        </is>
+      </c>
+      <c r="Y5" s="3" t="inlineStr">
+        <is>
+          <t>Weight</t>
+        </is>
+      </c>
+      <c r="Z5" s="3" t="inlineStr">
+        <is>
+          <t>Account</t>
+        </is>
+      </c>
+      <c r="AA5" s="3" t="inlineStr">
+        <is>
+          <t>Forwarder</t>
+        </is>
+      </c>
+      <c r="AB5" s="3" t="inlineStr">
+        <is>
+          <t>Di Agent</t>
+        </is>
+      </c>
+      <c r="AC5" s="3" t="inlineStr">
+        <is>
+          <t>Di Mlo</t>
+        </is>
+      </c>
+      <c r="AD5" s="3" t="inlineStr">
+        <is>
+          <t>Di Date</t>
+        </is>
+      </c>
+      <c r="AE5" s="3" t="inlineStr">
+        <is>
+          <t>Remarks</t>
+        </is>
+      </c>
+    </row>
+    <row ht="16" customHeight="true" r="6">
+      <c r="A6" s="3" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -783,7 +1302,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AB63"/>
+  <dimension ref="A1:AA63"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -812,8 +1331,8 @@
     <col min="21" max="21" bestFit="true" customWidth="true" width="12.2561797752809"/>
     <col min="22" max="22" bestFit="true" customWidth="true" width="10.78988764044944"/>
     <col min="23" max="23" bestFit="true" customWidth="true" width="24.8561797752809"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="47.08988764044945"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="58.08988764044944"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="58.08988764044944"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="55.88988764044944"/>
     <col min="26" max="26" bestFit="true" customWidth="true" width="28.4561797752809"/>
     <col min="27" max="27" bestFit="true" customWidth="true" width="21.2561797752809"/>
     <col min="28" max="28" bestFit="true" customWidth="true" width="19.4561797752809"/>
@@ -1044,7 +1563,7 @@
           <t>IMPORT</t>
         </is>
       </c>
-      <c r="M6" s="0" t="d">
+      <c r="M6" s="4" t="d">
         <v>2018-07-19T00:00:00</v>
       </c>
       <c r="N6" s="0" t="inlineStr">
@@ -1066,7 +1585,7 @@
       </c>
       <c r="S6" s="0"/>
       <c r="T6" s="0"/>
-      <c r="U6" s="0"/>
+      <c r="U6" s="4"/>
       <c r="V6" s="0" t="n">
         <v>1455294</v>
       </c>
@@ -1326,120 +1845,41 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>37385</v>
-      </c>
-      <c r="C9" s="0" t="inlineStr">
-        <is>
-          <t>FSCU9501867</t>
-        </is>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E9" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F9" s="0" t="inlineStr">
-        <is>
-          <t>GBX</t>
-        </is>
-      </c>
-      <c r="G9" s="0" t="inlineStr">
-        <is>
-          <t>HLG</t>
-        </is>
-      </c>
-      <c r="H9" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I9" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J9" s="0" t="inlineStr">
-        <is>
-          <t>KOTA WAJAR</t>
-        </is>
-      </c>
-      <c r="K9" s="0" t="inlineStr">
-        <is>
-          <t>2018/1148</t>
-        </is>
-      </c>
-      <c r="L9" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M9" s="4" t="d">
-        <v>2018-08-24T00:00:00</v>
-      </c>
-      <c r="N9" s="0" t="inlineStr">
-        <is>
-          <t>REPAIRED</t>
-        </is>
-      </c>
+      <c r="A9" s="0"/>
+      <c r="B9" s="0"/>
+      <c r="C9" s="0"/>
+      <c r="D9" s="0"/>
+      <c r="E9" s="0"/>
+      <c r="F9" s="0"/>
+      <c r="G9" s="0"/>
+      <c r="H9" s="0"/>
+      <c r="I9" s="0"/>
+      <c r="J9" s="0"/>
+      <c r="K9" s="0"/>
+      <c r="L9" s="0"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="0"/>
       <c r="O9" s="0"/>
-      <c r="P9" s="0" t="n">
-        <v>101</v>
-      </c>
-      <c r="Q9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="R9" s="0" t="inlineStr">
-        <is>
-          <t>Laden</t>
-        </is>
-      </c>
+      <c r="P9" s="0"/>
+      <c r="Q9" s="0"/>
+      <c r="R9" s="0"/>
       <c r="S9" s="0"/>
       <c r="T9" s="0"/>
       <c r="U9" s="4"/>
-      <c r="V9" s="0" t="n">
-        <v>1470714</v>
-      </c>
-      <c r="W9" s="0" t="inlineStr">
-        <is>
-          <t>DOORS-(D)</t>
-        </is>
-      </c>
+      <c r="V9" s="0"/>
+      <c r="W9" s="0"/>
       <c r="X9" s="0" t="inlineStr">
         <is>
-          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
-        </is>
-      </c>
-      <c r="Y9" s="0" t="inlineStr">
-        <is>
           <t>RIGHT DOOR BOTTOM GASKET LOOSE 12'</t>
         </is>
       </c>
-      <c r="Z9" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA9" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB9" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y9" s="0"/>
+      <c r="Z9" s="0"/>
+      <c r="AA9" s="0"/>
     </row>
     <row r="10">
       <c r="A10" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>37405</v>
@@ -1551,7 +1991,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>37406</v>
@@ -1663,7 +2103,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>37487</v>
@@ -1775,7 +2215,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>37535</v>
@@ -1886,120 +2326,41 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="B14" s="0" t="n">
-        <v>37535</v>
-      </c>
-      <c r="C14" s="0" t="inlineStr">
-        <is>
-          <t>HLXU8121989</t>
-        </is>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E14" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F14" s="0" t="inlineStr">
-        <is>
-          <t>GBX</t>
-        </is>
-      </c>
-      <c r="G14" s="0" t="inlineStr">
-        <is>
-          <t>HLG</t>
-        </is>
-      </c>
-      <c r="H14" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I14" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J14" s="0" t="inlineStr">
-        <is>
-          <t>ATLANTIC</t>
-        </is>
-      </c>
-      <c r="K14" s="0" t="inlineStr">
-        <is>
-          <t>2018/2536</t>
-        </is>
-      </c>
-      <c r="L14" s="0" t="inlineStr">
-        <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="M14" s="4" t="d">
-        <v>2018-08-31T00:00:00</v>
-      </c>
-      <c r="N14" s="0" t="inlineStr">
-        <is>
-          <t>WASH</t>
-        </is>
-      </c>
+      <c r="A14" s="0"/>
+      <c r="B14" s="0"/>
+      <c r="C14" s="0"/>
+      <c r="D14" s="0"/>
+      <c r="E14" s="0"/>
+      <c r="F14" s="0"/>
+      <c r="G14" s="0"/>
+      <c r="H14" s="0"/>
+      <c r="I14" s="0"/>
+      <c r="J14" s="0"/>
+      <c r="K14" s="0"/>
+      <c r="L14" s="0"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="0"/>
       <c r="O14" s="0"/>
-      <c r="P14" s="0" t="n">
-        <v>94</v>
-      </c>
-      <c r="Q14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="R14" s="0" t="inlineStr">
-        <is>
-          <t>Laden</t>
-        </is>
-      </c>
+      <c r="P14" s="0"/>
+      <c r="Q14" s="0"/>
+      <c r="R14" s="0"/>
       <c r="S14" s="0"/>
       <c r="T14" s="0"/>
       <c r="U14" s="4"/>
-      <c r="V14" s="0" t="n">
-        <v>1472783</v>
-      </c>
-      <c r="W14" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V14" s="0"/>
+      <c r="W14" s="0"/>
       <c r="X14" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
-        </is>
-      </c>
-      <c r="Y14" s="0" t="inlineStr">
-        <is>
           <t>INTERIOR PANEL DIRTY</t>
         </is>
       </c>
-      <c r="Z14" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA14" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB14" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y14" s="0"/>
+      <c r="Z14" s="0"/>
+      <c r="AA14" s="0"/>
     </row>
     <row r="15">
       <c r="A15" s="0" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>37730</v>
@@ -2110,120 +2471,41 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="B16" s="0" t="n">
-        <v>37730</v>
-      </c>
-      <c r="C16" s="0" t="inlineStr">
-        <is>
-          <t>UACU5715196</t>
-        </is>
-      </c>
-      <c r="D16" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E16" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F16" s="0" t="inlineStr">
-        <is>
-          <t>GBX</t>
-        </is>
-      </c>
-      <c r="G16" s="0" t="inlineStr">
-        <is>
-          <t>HLG</t>
-        </is>
-      </c>
-      <c r="H16" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I16" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J16" s="0" t="inlineStr">
-        <is>
-          <t>ATLANTIC</t>
-        </is>
-      </c>
-      <c r="K16" s="0" t="inlineStr">
-        <is>
-          <t>2018/2536</t>
-        </is>
-      </c>
-      <c r="L16" s="0" t="inlineStr">
-        <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="M16" s="4" t="d">
-        <v>2018-09-03T00:00:00</v>
-      </c>
-      <c r="N16" s="0" t="inlineStr">
-        <is>
-          <t>REPAIRED</t>
-        </is>
-      </c>
+      <c r="A16" s="0"/>
+      <c r="B16" s="0"/>
+      <c r="C16" s="0"/>
+      <c r="D16" s="0"/>
+      <c r="E16" s="0"/>
+      <c r="F16" s="0"/>
+      <c r="G16" s="0"/>
+      <c r="H16" s="0"/>
+      <c r="I16" s="0"/>
+      <c r="J16" s="0"/>
+      <c r="K16" s="0"/>
+      <c r="L16" s="0"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="0"/>
       <c r="O16" s="0"/>
-      <c r="P16" s="0" t="n">
-        <v>91</v>
-      </c>
-      <c r="Q16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P16" s="0"/>
+      <c r="Q16" s="0"/>
+      <c r="R16" s="0"/>
       <c r="S16" s="0"/>
       <c r="T16" s="0"/>
       <c r="U16" s="4"/>
-      <c r="V16" s="0" t="n">
-        <v>1474063</v>
-      </c>
-      <c r="W16" s="0" t="inlineStr">
-        <is>
-          <t>FLOORS-(F)</t>
-        </is>
-      </c>
+      <c r="V16" s="0"/>
+      <c r="W16" s="0"/>
       <c r="X16" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
-        </is>
-      </c>
-      <c r="Y16" s="0" t="inlineStr">
-        <is>
           <t>FLOOR BOARD NAILS FITTING 8 PES</t>
         </is>
       </c>
-      <c r="Z16" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA16" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB16" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y16" s="0"/>
+      <c r="Z16" s="0"/>
+      <c r="AA16" s="0"/>
     </row>
     <row r="17">
       <c r="A17" s="0" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>37733</v>
@@ -2334,232 +2616,74 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="B18" s="0" t="n">
-        <v>37733</v>
-      </c>
-      <c r="C18" s="0" t="inlineStr">
-        <is>
-          <t>GESU4656115</t>
-        </is>
-      </c>
-      <c r="D18" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E18" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F18" s="0" t="inlineStr">
-        <is>
-          <t>GBX</t>
-        </is>
-      </c>
-      <c r="G18" s="0" t="inlineStr">
-        <is>
-          <t>HLG</t>
-        </is>
-      </c>
-      <c r="H18" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I18" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J18" s="0" t="inlineStr">
-        <is>
-          <t>ATLANTIC</t>
-        </is>
-      </c>
-      <c r="K18" s="0" t="inlineStr">
-        <is>
-          <t>2018/2536</t>
-        </is>
-      </c>
-      <c r="L18" s="0" t="inlineStr">
-        <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="M18" s="4" t="d">
-        <v>2018-09-03T00:00:00</v>
-      </c>
-      <c r="N18" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
+      <c r="A18" s="0"/>
+      <c r="B18" s="0"/>
+      <c r="C18" s="0"/>
+      <c r="D18" s="0"/>
+      <c r="E18" s="0"/>
+      <c r="F18" s="0"/>
+      <c r="G18" s="0"/>
+      <c r="H18" s="0"/>
+      <c r="I18" s="0"/>
+      <c r="J18" s="0"/>
+      <c r="K18" s="0"/>
+      <c r="L18" s="0"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="0"/>
       <c r="O18" s="0"/>
-      <c r="P18" s="0" t="n">
-        <v>91</v>
-      </c>
-      <c r="Q18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P18" s="0"/>
+      <c r="Q18" s="0"/>
+      <c r="R18" s="0"/>
       <c r="S18" s="0"/>
       <c r="T18" s="0"/>
       <c r="U18" s="4"/>
-      <c r="V18" s="0" t="n">
-        <v>1474072</v>
-      </c>
-      <c r="W18" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V18" s="0"/>
+      <c r="W18" s="0"/>
       <c r="X18" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
-        </is>
-      </c>
-      <c r="Y18" s="0" t="inlineStr">
-        <is>
           <t>RIGHT SIDE PANEL PUSH IN 20" X 40</t>
         </is>
       </c>
-      <c r="Z18" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA18" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB18" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y18" s="0"/>
+      <c r="Z18" s="0"/>
+      <c r="AA18" s="0"/>
     </row>
     <row r="19">
-      <c r="A19" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="B19" s="0" t="n">
-        <v>37733</v>
-      </c>
-      <c r="C19" s="0" t="inlineStr">
-        <is>
-          <t>GESU4656115</t>
-        </is>
-      </c>
-      <c r="D19" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E19" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F19" s="0" t="inlineStr">
-        <is>
-          <t>GBX</t>
-        </is>
-      </c>
-      <c r="G19" s="0" t="inlineStr">
-        <is>
-          <t>HLG</t>
-        </is>
-      </c>
-      <c r="H19" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I19" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J19" s="0" t="inlineStr">
-        <is>
-          <t>ATLANTIC</t>
-        </is>
-      </c>
-      <c r="K19" s="0" t="inlineStr">
-        <is>
-          <t>2018/2536</t>
-        </is>
-      </c>
-      <c r="L19" s="0" t="inlineStr">
-        <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="M19" s="4" t="d">
-        <v>2018-09-03T00:00:00</v>
-      </c>
-      <c r="N19" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
+      <c r="A19" s="0"/>
+      <c r="B19" s="0"/>
+      <c r="C19" s="0"/>
+      <c r="D19" s="0"/>
+      <c r="E19" s="0"/>
+      <c r="F19" s="0"/>
+      <c r="G19" s="0"/>
+      <c r="H19" s="0"/>
+      <c r="I19" s="0"/>
+      <c r="J19" s="0"/>
+      <c r="K19" s="0"/>
+      <c r="L19" s="0"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="0"/>
       <c r="O19" s="0"/>
-      <c r="P19" s="0" t="n">
-        <v>91</v>
-      </c>
-      <c r="Q19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P19" s="0"/>
+      <c r="Q19" s="0"/>
+      <c r="R19" s="0"/>
       <c r="S19" s="0"/>
       <c r="T19" s="0"/>
       <c r="U19" s="4"/>
-      <c r="V19" s="0" t="n">
-        <v>1474072</v>
-      </c>
-      <c r="W19" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V19" s="0"/>
+      <c r="W19" s="0"/>
       <c r="X19" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
-        </is>
-      </c>
-      <c r="Y19" s="0" t="inlineStr">
-        <is>
           <t>LEFT SIDE PANEL PUSH IN 20" 40"</t>
         </is>
       </c>
-      <c r="Z19" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA19" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB19" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y19" s="0"/>
+      <c r="Z19" s="0"/>
+      <c r="AA19" s="0"/>
     </row>
     <row r="20">
       <c r="A20" s="0" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>37774</v>
@@ -2671,7 +2795,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>37780</v>
@@ -2782,120 +2906,41 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="0" t="n">
-        <v>17</v>
-      </c>
-      <c r="B22" s="0" t="n">
-        <v>37780</v>
-      </c>
-      <c r="C22" s="0" t="inlineStr">
-        <is>
-          <t>TCNU5837401</t>
-        </is>
-      </c>
-      <c r="D22" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E22" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F22" s="0" t="inlineStr">
-        <is>
-          <t>GBX</t>
-        </is>
-      </c>
-      <c r="G22" s="0" t="inlineStr">
-        <is>
-          <t>HLG</t>
-        </is>
-      </c>
-      <c r="H22" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I22" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J22" s="0" t="inlineStr">
-        <is>
-          <t>ATLANTIC</t>
-        </is>
-      </c>
-      <c r="K22" s="0" t="inlineStr">
-        <is>
-          <t>2018/2536</t>
-        </is>
-      </c>
-      <c r="L22" s="0" t="inlineStr">
-        <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="M22" s="4" t="d">
-        <v>2018-09-04T00:00:00</v>
-      </c>
-      <c r="N22" s="0" t="inlineStr">
-        <is>
-          <t>REPAIRED</t>
-        </is>
-      </c>
+      <c r="A22" s="0"/>
+      <c r="B22" s="0"/>
+      <c r="C22" s="0"/>
+      <c r="D22" s="0"/>
+      <c r="E22" s="0"/>
+      <c r="F22" s="0"/>
+      <c r="G22" s="0"/>
+      <c r="H22" s="0"/>
+      <c r="I22" s="0"/>
+      <c r="J22" s="0"/>
+      <c r="K22" s="0"/>
+      <c r="L22" s="0"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="0"/>
       <c r="O22" s="0"/>
-      <c r="P22" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="Q22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P22" s="0"/>
+      <c r="Q22" s="0"/>
+      <c r="R22" s="0"/>
       <c r="S22" s="0"/>
       <c r="T22" s="0"/>
       <c r="U22" s="4"/>
-      <c r="V22" s="0" t="n">
-        <v>1474476</v>
-      </c>
-      <c r="W22" s="0" t="inlineStr">
-        <is>
-          <t>FLOORS-(F)</t>
-        </is>
-      </c>
+      <c r="V22" s="0"/>
+      <c r="W22" s="0"/>
       <c r="X22" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
-        </is>
-      </c>
-      <c r="Y22" s="0" t="inlineStr">
-        <is>
           <t>FLOOR BOARD NAILS FITTING 8 PES</t>
         </is>
       </c>
-      <c r="Z22" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA22" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB22" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y22" s="0"/>
+      <c r="Z22" s="0"/>
+      <c r="AA22" s="0"/>
     </row>
     <row r="23">
       <c r="A23" s="0" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>40008</v>
@@ -3007,7 +3052,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>37366</v>
@@ -3119,7 +3164,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>37369</v>
@@ -3230,120 +3275,41 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="B26" s="0" t="n">
-        <v>37369</v>
-      </c>
-      <c r="C26" s="0" t="inlineStr">
-        <is>
-          <t>UACU5280236</t>
-        </is>
-      </c>
-      <c r="D26" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E26" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F26" s="0" t="inlineStr">
-        <is>
-          <t>GBX</t>
-        </is>
-      </c>
-      <c r="G26" s="0" t="inlineStr">
-        <is>
-          <t>HLG</t>
-        </is>
-      </c>
-      <c r="H26" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I26" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J26" s="0" t="inlineStr">
-        <is>
-          <t>ESM CREMONA</t>
-        </is>
-      </c>
-      <c r="K26" s="0" t="inlineStr">
-        <is>
-          <t>2018/2245</t>
-        </is>
-      </c>
-      <c r="L26" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M26" s="4" t="d">
-        <v>2018-08-20T00:00:00</v>
-      </c>
-      <c r="N26" s="0" t="inlineStr">
-        <is>
-          <t>CLEANED</t>
-        </is>
-      </c>
+      <c r="A26" s="0"/>
+      <c r="B26" s="0"/>
+      <c r="C26" s="0"/>
+      <c r="D26" s="0"/>
+      <c r="E26" s="0"/>
+      <c r="F26" s="0"/>
+      <c r="G26" s="0"/>
+      <c r="H26" s="0"/>
+      <c r="I26" s="0"/>
+      <c r="J26" s="0"/>
+      <c r="K26" s="0"/>
+      <c r="L26" s="0"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="0"/>
       <c r="O26" s="0"/>
-      <c r="P26" s="0" t="n">
-        <v>105</v>
-      </c>
-      <c r="Q26" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P26" s="0"/>
+      <c r="Q26" s="0"/>
+      <c r="R26" s="0"/>
       <c r="S26" s="0"/>
       <c r="T26" s="0"/>
       <c r="U26" s="4"/>
-      <c r="V26" s="0" t="n">
-        <v>1470408</v>
-      </c>
-      <c r="W26" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V26" s="0"/>
+      <c r="W26" s="0"/>
       <c r="X26" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
-        </is>
-      </c>
-      <c r="Y26" s="0" t="inlineStr">
-        <is>
           <t>INTERIRO PANEL DIRTY</t>
         </is>
       </c>
-      <c r="Z26" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA26" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB26" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y26" s="0"/>
+      <c r="Z26" s="0"/>
+      <c r="AA26" s="0"/>
     </row>
     <row r="27">
       <c r="A27" s="0" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>37383</v>
@@ -3454,120 +3420,41 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="0" t="n">
-        <v>23</v>
-      </c>
-      <c r="B28" s="0" t="n">
-        <v>37383</v>
-      </c>
-      <c r="C28" s="0" t="inlineStr">
-        <is>
-          <t>TCLU8229820</t>
-        </is>
-      </c>
-      <c r="D28" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E28" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F28" s="0" t="inlineStr">
-        <is>
-          <t>GBX</t>
-        </is>
-      </c>
-      <c r="G28" s="0" t="inlineStr">
-        <is>
-          <t>HLG</t>
-        </is>
-      </c>
-      <c r="H28" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I28" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J28" s="0" t="inlineStr">
-        <is>
-          <t>LUCKY MERRY</t>
-        </is>
-      </c>
-      <c r="K28" s="0" t="inlineStr">
-        <is>
-          <t>2018/2164</t>
-        </is>
-      </c>
-      <c r="L28" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M28" s="4" t="d">
-        <v>2018-08-24T00:00:00</v>
-      </c>
-      <c r="N28" s="0" t="inlineStr">
-        <is>
-          <t>WASH</t>
-        </is>
-      </c>
+      <c r="A28" s="0"/>
+      <c r="B28" s="0"/>
+      <c r="C28" s="0"/>
+      <c r="D28" s="0"/>
+      <c r="E28" s="0"/>
+      <c r="F28" s="0"/>
+      <c r="G28" s="0"/>
+      <c r="H28" s="0"/>
+      <c r="I28" s="0"/>
+      <c r="J28" s="0"/>
+      <c r="K28" s="0"/>
+      <c r="L28" s="0"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="0"/>
       <c r="O28" s="0"/>
-      <c r="P28" s="0" t="n">
-        <v>101</v>
-      </c>
-      <c r="Q28" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P28" s="0"/>
+      <c r="Q28" s="0"/>
+      <c r="R28" s="0"/>
       <c r="S28" s="0"/>
       <c r="T28" s="0"/>
       <c r="U28" s="4"/>
-      <c r="V28" s="0" t="n">
-        <v>1470701</v>
-      </c>
-      <c r="W28" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V28" s="0"/>
+      <c r="W28" s="0"/>
       <c r="X28" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
-        </is>
-      </c>
-      <c r="Y28" s="0" t="inlineStr">
-        <is>
           <t>INTERIOR PANEL DIRTY</t>
         </is>
       </c>
-      <c r="Z28" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA28" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB28" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y28" s="0"/>
+      <c r="Z28" s="0"/>
+      <c r="AA28" s="0"/>
     </row>
     <row r="29">
       <c r="A29" s="0" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>37384</v>
@@ -3678,232 +3565,74 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="B30" s="0" t="n">
-        <v>37384</v>
-      </c>
-      <c r="C30" s="0" t="inlineStr">
-        <is>
-          <t>GLDU7169713</t>
-        </is>
-      </c>
-      <c r="D30" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E30" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F30" s="0" t="inlineStr">
-        <is>
-          <t>GBX</t>
-        </is>
-      </c>
-      <c r="G30" s="0" t="inlineStr">
-        <is>
-          <t>HLG</t>
-        </is>
-      </c>
-      <c r="H30" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I30" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J30" s="0" t="inlineStr">
-        <is>
-          <t>OEL LANKA</t>
-        </is>
-      </c>
-      <c r="K30" s="0" t="inlineStr">
-        <is>
-          <t>2018/2253</t>
-        </is>
-      </c>
-      <c r="L30" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M30" s="4" t="d">
-        <v>2018-08-24T00:00:00</v>
-      </c>
-      <c r="N30" s="0" t="inlineStr">
-        <is>
-          <t>REPAIRED</t>
-        </is>
-      </c>
+      <c r="A30" s="0"/>
+      <c r="B30" s="0"/>
+      <c r="C30" s="0"/>
+      <c r="D30" s="0"/>
+      <c r="E30" s="0"/>
+      <c r="F30" s="0"/>
+      <c r="G30" s="0"/>
+      <c r="H30" s="0"/>
+      <c r="I30" s="0"/>
+      <c r="J30" s="0"/>
+      <c r="K30" s="0"/>
+      <c r="L30" s="0"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="0"/>
       <c r="O30" s="0"/>
-      <c r="P30" s="0" t="n">
-        <v>101</v>
-      </c>
-      <c r="Q30" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="R30" s="0" t="inlineStr">
-        <is>
-          <t>Laden</t>
-        </is>
-      </c>
+      <c r="P30" s="0"/>
+      <c r="Q30" s="0"/>
+      <c r="R30" s="0"/>
       <c r="S30" s="0"/>
       <c r="T30" s="0"/>
       <c r="U30" s="4"/>
-      <c r="V30" s="0" t="n">
-        <v>1470702</v>
-      </c>
-      <c r="W30" s="0" t="inlineStr">
-        <is>
-          <t>DOORS-(D)</t>
-        </is>
-      </c>
+      <c r="V30" s="0"/>
+      <c r="W30" s="0"/>
       <c r="X30" s="0" t="inlineStr">
         <is>
-          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
-        </is>
-      </c>
-      <c r="Y30" s="0" t="inlineStr">
-        <is>
           <t>RIGHT DOOR LOCK BAR BENT 01 PCS</t>
         </is>
       </c>
-      <c r="Z30" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA30" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB30" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y30" s="0"/>
+      <c r="Z30" s="0"/>
+      <c r="AA30" s="0"/>
     </row>
     <row r="31">
-      <c r="A31" s="0" t="n">
-        <v>26</v>
-      </c>
-      <c r="B31" s="0" t="n">
-        <v>37384</v>
-      </c>
-      <c r="C31" s="0" t="inlineStr">
-        <is>
-          <t>GLDU7169713</t>
-        </is>
-      </c>
-      <c r="D31" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E31" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F31" s="0" t="inlineStr">
-        <is>
-          <t>GBX</t>
-        </is>
-      </c>
-      <c r="G31" s="0" t="inlineStr">
-        <is>
-          <t>HLG</t>
-        </is>
-      </c>
-      <c r="H31" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I31" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J31" s="0" t="inlineStr">
-        <is>
-          <t>OEL LANKA</t>
-        </is>
-      </c>
-      <c r="K31" s="0" t="inlineStr">
-        <is>
-          <t>2018/2253</t>
-        </is>
-      </c>
-      <c r="L31" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M31" s="4" t="d">
-        <v>2018-08-24T00:00:00</v>
-      </c>
-      <c r="N31" s="0" t="inlineStr">
-        <is>
-          <t>REPAIRED</t>
-        </is>
-      </c>
+      <c r="A31" s="0"/>
+      <c r="B31" s="0"/>
+      <c r="C31" s="0"/>
+      <c r="D31" s="0"/>
+      <c r="E31" s="0"/>
+      <c r="F31" s="0"/>
+      <c r="G31" s="0"/>
+      <c r="H31" s="0"/>
+      <c r="I31" s="0"/>
+      <c r="J31" s="0"/>
+      <c r="K31" s="0"/>
+      <c r="L31" s="0"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="0"/>
       <c r="O31" s="0"/>
-      <c r="P31" s="0" t="n">
-        <v>101</v>
-      </c>
-      <c r="Q31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="R31" s="0" t="inlineStr">
-        <is>
-          <t>Laden</t>
-        </is>
-      </c>
+      <c r="P31" s="0"/>
+      <c r="Q31" s="0"/>
+      <c r="R31" s="0"/>
       <c r="S31" s="0"/>
       <c r="T31" s="0"/>
       <c r="U31" s="4"/>
-      <c r="V31" s="0" t="n">
-        <v>1470702</v>
-      </c>
-      <c r="W31" s="0" t="inlineStr">
-        <is>
-          <t>DOORS-(D)</t>
-        </is>
-      </c>
+      <c r="V31" s="0"/>
+      <c r="W31" s="0"/>
       <c r="X31" s="0" t="inlineStr">
         <is>
-          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
-        </is>
-      </c>
-      <c r="Y31" s="0" t="inlineStr">
-        <is>
           <t>RIGHT DOOR BOTTOM KEEPER BENT 01 PCS</t>
         </is>
       </c>
-      <c r="Z31" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA31" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB31" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y31" s="0"/>
+      <c r="Z31" s="0"/>
+      <c r="AA31" s="0"/>
     </row>
     <row r="32">
       <c r="A32" s="0" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>37410</v>
@@ -4015,7 +3744,7 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>37412</v>
@@ -4127,7 +3856,7 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>37514</v>
@@ -4239,7 +3968,7 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>37522</v>
@@ -4350,120 +4079,41 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="0" t="n">
-        <v>31</v>
-      </c>
-      <c r="B36" s="0" t="n">
-        <v>37522</v>
-      </c>
-      <c r="C36" s="0" t="inlineStr">
-        <is>
-          <t>TGHU9089336</t>
-        </is>
-      </c>
-      <c r="D36" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E36" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F36" s="0" t="inlineStr">
-        <is>
-          <t>GBX</t>
-        </is>
-      </c>
-      <c r="G36" s="0" t="inlineStr">
-        <is>
-          <t>HLG</t>
-        </is>
-      </c>
-      <c r="H36" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I36" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J36" s="0" t="inlineStr">
-        <is>
-          <t>ATLANTIC</t>
-        </is>
-      </c>
-      <c r="K36" s="0" t="inlineStr">
-        <is>
-          <t>2018/2536</t>
-        </is>
-      </c>
-      <c r="L36" s="0" t="inlineStr">
-        <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="M36" s="4" t="d">
-        <v>2018-08-31T00:00:00</v>
-      </c>
-      <c r="N36" s="0" t="inlineStr">
-        <is>
-          <t>REPAIRED</t>
-        </is>
-      </c>
+      <c r="A36" s="0"/>
+      <c r="B36" s="0"/>
+      <c r="C36" s="0"/>
+      <c r="D36" s="0"/>
+      <c r="E36" s="0"/>
+      <c r="F36" s="0"/>
+      <c r="G36" s="0"/>
+      <c r="H36" s="0"/>
+      <c r="I36" s="0"/>
+      <c r="J36" s="0"/>
+      <c r="K36" s="0"/>
+      <c r="L36" s="0"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="0"/>
       <c r="O36" s="0"/>
-      <c r="P36" s="0" t="n">
-        <v>94</v>
-      </c>
-      <c r="Q36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R36" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P36" s="0"/>
+      <c r="Q36" s="0"/>
+      <c r="R36" s="0"/>
       <c r="S36" s="0"/>
       <c r="T36" s="0"/>
       <c r="U36" s="4"/>
-      <c r="V36" s="0" t="n">
-        <v>1472645</v>
-      </c>
-      <c r="W36" s="0" t="inlineStr">
-        <is>
-          <t>FLOORS-(F)</t>
-        </is>
-      </c>
+      <c r="V36" s="0"/>
+      <c r="W36" s="0"/>
       <c r="X36" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD-(FLOOR BOARD)</t>
-        </is>
-      </c>
-      <c r="Y36" s="0" t="inlineStr">
-        <is>
           <t>FLOOR BOARD NAILS FITTINGS AT VARIOUS PLASE</t>
         </is>
       </c>
-      <c r="Z36" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA36" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB36" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y36" s="0"/>
+      <c r="Z36" s="0"/>
+      <c r="AA36" s="0"/>
     </row>
     <row r="37">
       <c r="A37" s="0" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>37551</v>
@@ -4575,7 +4225,7 @@
     </row>
     <row r="38">
       <c r="A38" s="0" t="n">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>37553</v>
@@ -4663,7 +4313,7 @@
     </row>
     <row r="39">
       <c r="A39" s="0" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>37554</v>
@@ -4775,7 +4425,7 @@
     </row>
     <row r="40">
       <c r="A40" s="0" t="n">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>37560</v>
@@ -4886,120 +4536,41 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="0" t="n">
-        <v>36</v>
-      </c>
-      <c r="B41" s="0" t="n">
-        <v>37560</v>
-      </c>
-      <c r="C41" s="0" t="inlineStr">
-        <is>
-          <t>AMFU8799324</t>
-        </is>
-      </c>
-      <c r="D41" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E41" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F41" s="0" t="inlineStr">
-        <is>
-          <t>GBX</t>
-        </is>
-      </c>
-      <c r="G41" s="0" t="inlineStr">
-        <is>
-          <t>HLG</t>
-        </is>
-      </c>
-      <c r="H41" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I41" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J41" s="0" t="inlineStr">
-        <is>
-          <t>M GOUGH</t>
-        </is>
-      </c>
-      <c r="K41" s="0" t="inlineStr">
-        <is>
-          <t>1854/18</t>
-        </is>
-      </c>
-      <c r="L41" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M41" s="4" t="d">
-        <v>2018-08-31T00:00:00</v>
-      </c>
-      <c r="N41" s="0" t="inlineStr">
-        <is>
-          <t>REPAIRED</t>
-        </is>
-      </c>
+      <c r="A41" s="0"/>
+      <c r="B41" s="0"/>
+      <c r="C41" s="0"/>
+      <c r="D41" s="0"/>
+      <c r="E41" s="0"/>
+      <c r="F41" s="0"/>
+      <c r="G41" s="0"/>
+      <c r="H41" s="0"/>
+      <c r="I41" s="0"/>
+      <c r="J41" s="0"/>
+      <c r="K41" s="0"/>
+      <c r="L41" s="0"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="0"/>
       <c r="O41" s="0"/>
-      <c r="P41" s="0" t="n">
-        <v>94</v>
-      </c>
-      <c r="Q41" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P41" s="0"/>
+      <c r="Q41" s="0"/>
+      <c r="R41" s="0"/>
       <c r="S41" s="0"/>
       <c r="T41" s="0"/>
       <c r="U41" s="4"/>
-      <c r="V41" s="0" t="n">
-        <v>1473022</v>
-      </c>
-      <c r="W41" s="0" t="inlineStr">
-        <is>
-          <t>DOORS-(D)</t>
-        </is>
-      </c>
+      <c r="V41" s="0"/>
+      <c r="W41" s="0"/>
       <c r="X41" s="0" t="inlineStr">
         <is>
-          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
-        </is>
-      </c>
-      <c r="Y41" s="0" t="inlineStr">
-        <is>
           <t>LEFT DOOR HINGERS PIN MISSING 01 PCS</t>
         </is>
       </c>
-      <c r="Z41" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA41" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB41" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y41" s="0"/>
+      <c r="Z41" s="0"/>
+      <c r="AA41" s="0"/>
     </row>
     <row r="42">
       <c r="A42" s="0" t="n">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>37561</v>
@@ -5111,7 +4682,7 @@
     </row>
     <row r="43">
       <c r="A43" s="0" t="n">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>37032</v>
@@ -5199,7 +4770,7 @@
     </row>
     <row r="44">
       <c r="A44" s="0" t="n">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>37272</v>
@@ -5310,120 +4881,41 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="B45" s="0" t="n">
-        <v>37272</v>
-      </c>
-      <c r="C45" s="0" t="inlineStr">
-        <is>
-          <t>CAIU8525548</t>
-        </is>
-      </c>
-      <c r="D45" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E45" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F45" s="0" t="inlineStr">
-        <is>
-          <t>GBX</t>
-        </is>
-      </c>
-      <c r="G45" s="0" t="inlineStr">
-        <is>
-          <t>HLG</t>
-        </is>
-      </c>
-      <c r="H45" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I45" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J45" s="0" t="inlineStr">
-        <is>
-          <t>OREA</t>
-        </is>
-      </c>
-      <c r="K45" s="0" t="inlineStr">
-        <is>
-          <t>2344/2018</t>
-        </is>
-      </c>
-      <c r="L45" s="0" t="inlineStr">
-        <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="M45" s="4" t="d">
-        <v>2018-08-12T00:00:00</v>
-      </c>
-      <c r="N45" s="0" t="inlineStr">
-        <is>
-          <t>REPAIRED</t>
-        </is>
-      </c>
+      <c r="A45" s="0"/>
+      <c r="B45" s="0"/>
+      <c r="C45" s="0"/>
+      <c r="D45" s="0"/>
+      <c r="E45" s="0"/>
+      <c r="F45" s="0"/>
+      <c r="G45" s="0"/>
+      <c r="H45" s="0"/>
+      <c r="I45" s="0"/>
+      <c r="J45" s="0"/>
+      <c r="K45" s="0"/>
+      <c r="L45" s="0"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="0"/>
       <c r="O45" s="0"/>
-      <c r="P45" s="0" t="n">
-        <v>113</v>
-      </c>
-      <c r="Q45" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R45" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P45" s="0"/>
+      <c r="Q45" s="0"/>
+      <c r="R45" s="0"/>
       <c r="S45" s="0"/>
       <c r="T45" s="0"/>
       <c r="U45" s="4"/>
-      <c r="V45" s="0" t="n">
-        <v>1466561</v>
-      </c>
-      <c r="W45" s="0" t="inlineStr">
-        <is>
-          <t>FLOORS-(F)</t>
-        </is>
-      </c>
+      <c r="V45" s="0"/>
+      <c r="W45" s="0"/>
       <c r="X45" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
-        </is>
-      </c>
-      <c r="Y45" s="0" t="inlineStr">
-        <is>
           <t>FLOOR BOARD NAILS FITTING 03 PLS</t>
         </is>
       </c>
-      <c r="Z45" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA45" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB45" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y45" s="0"/>
+      <c r="Z45" s="0"/>
+      <c r="AA45" s="0"/>
     </row>
     <row r="46">
       <c r="A46" s="0" t="n">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>37792</v>
@@ -5534,120 +5026,41 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="0" t="n">
-        <v>42</v>
-      </c>
-      <c r="B47" s="0" t="n">
-        <v>37792</v>
-      </c>
-      <c r="C47" s="0" t="inlineStr">
-        <is>
-          <t>DFSU6322836</t>
-        </is>
-      </c>
-      <c r="D47" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E47" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F47" s="0" t="inlineStr">
-        <is>
-          <t>GBX</t>
-        </is>
-      </c>
-      <c r="G47" s="0" t="inlineStr">
-        <is>
-          <t>HLG</t>
-        </is>
-      </c>
-      <c r="H47" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I47" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J47" s="0" t="inlineStr">
-        <is>
-          <t>ATLANTIC</t>
-        </is>
-      </c>
-      <c r="K47" s="0" t="inlineStr">
-        <is>
-          <t>2018/2536</t>
-        </is>
-      </c>
-      <c r="L47" s="0" t="inlineStr">
-        <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="M47" s="4" t="d">
-        <v>2018-09-04T00:00:00</v>
-      </c>
-      <c r="N47" s="0" t="inlineStr">
-        <is>
-          <t>CLEANED</t>
-        </is>
-      </c>
+      <c r="A47" s="0"/>
+      <c r="B47" s="0"/>
+      <c r="C47" s="0"/>
+      <c r="D47" s="0"/>
+      <c r="E47" s="0"/>
+      <c r="F47" s="0"/>
+      <c r="G47" s="0"/>
+      <c r="H47" s="0"/>
+      <c r="I47" s="0"/>
+      <c r="J47" s="0"/>
+      <c r="K47" s="0"/>
+      <c r="L47" s="0"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="0"/>
       <c r="O47" s="0"/>
-      <c r="P47" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="Q47" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R47" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P47" s="0"/>
+      <c r="Q47" s="0"/>
+      <c r="R47" s="0"/>
       <c r="S47" s="0"/>
       <c r="T47" s="0"/>
       <c r="U47" s="4"/>
-      <c r="V47" s="0" t="n">
-        <v>1474554</v>
-      </c>
-      <c r="W47" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V47" s="0"/>
+      <c r="W47" s="0"/>
       <c r="X47" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
-        </is>
-      </c>
-      <c r="Y47" s="0" t="inlineStr">
-        <is>
           <t>INTERIOR PANEL DIRTY</t>
         </is>
       </c>
-      <c r="Z47" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA47" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB47" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y47" s="0"/>
+      <c r="Z47" s="0"/>
+      <c r="AA47" s="0"/>
     </row>
     <row r="48">
       <c r="A48" s="0" t="n">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>38756</v>
@@ -5758,120 +5171,41 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="0" t="n">
-        <v>44</v>
-      </c>
-      <c r="B49" s="0" t="n">
-        <v>38756</v>
-      </c>
-      <c r="C49" s="0" t="inlineStr">
-        <is>
-          <t>TRLU7388359</t>
-        </is>
-      </c>
-      <c r="D49" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E49" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F49" s="0" t="inlineStr">
-        <is>
-          <t>GBX</t>
-        </is>
-      </c>
-      <c r="G49" s="0" t="inlineStr">
-        <is>
-          <t>HLG</t>
-        </is>
-      </c>
-      <c r="H49" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I49" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J49" s="0" t="inlineStr">
-        <is>
-          <t>PAUL ABRAO</t>
-        </is>
-      </c>
-      <c r="K49" s="0" t="inlineStr">
-        <is>
-          <t>2018/2629</t>
-        </is>
-      </c>
-      <c r="L49" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M49" s="4" t="d">
-        <v>2018-09-12T00:00:00</v>
-      </c>
-      <c r="N49" s="0" t="inlineStr">
-        <is>
-          <t>CLEANED</t>
-        </is>
-      </c>
+      <c r="A49" s="0"/>
+      <c r="B49" s="0"/>
+      <c r="C49" s="0"/>
+      <c r="D49" s="0"/>
+      <c r="E49" s="0"/>
+      <c r="F49" s="0"/>
+      <c r="G49" s="0"/>
+      <c r="H49" s="0"/>
+      <c r="I49" s="0"/>
+      <c r="J49" s="0"/>
+      <c r="K49" s="0"/>
+      <c r="L49" s="0"/>
+      <c r="M49" s="4"/>
+      <c r="N49" s="0"/>
       <c r="O49" s="0"/>
-      <c r="P49" s="0" t="n">
-        <v>82</v>
-      </c>
-      <c r="Q49" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R49" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P49" s="0"/>
+      <c r="Q49" s="0"/>
+      <c r="R49" s="0"/>
       <c r="S49" s="0"/>
       <c r="T49" s="0"/>
       <c r="U49" s="4"/>
-      <c r="V49" s="0" t="n">
-        <v>1478293</v>
-      </c>
-      <c r="W49" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V49" s="0"/>
+      <c r="W49" s="0"/>
       <c r="X49" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
-        </is>
-      </c>
-      <c r="Y49" s="0" t="inlineStr">
-        <is>
           <t>INTERIOR PANEL INK</t>
         </is>
       </c>
-      <c r="Z49" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA49" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB49" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y49" s="0"/>
+      <c r="Z49" s="0"/>
+      <c r="AA49" s="0"/>
     </row>
     <row r="50">
       <c r="A50" s="0" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>38757</v>
@@ -5982,120 +5316,41 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="0" t="n">
-        <v>46</v>
-      </c>
-      <c r="B51" s="0" t="n">
-        <v>38757</v>
-      </c>
-      <c r="C51" s="0" t="inlineStr">
-        <is>
-          <t>TCLU5989726</t>
-        </is>
-      </c>
-      <c r="D51" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E51" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F51" s="0" t="inlineStr">
-        <is>
-          <t>GBX</t>
-        </is>
-      </c>
-      <c r="G51" s="0" t="inlineStr">
-        <is>
-          <t>HLG</t>
-        </is>
-      </c>
-      <c r="H51" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I51" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J51" s="0" t="inlineStr">
-        <is>
-          <t>ROBERT RICKMERS</t>
-        </is>
-      </c>
-      <c r="K51" s="0" t="inlineStr">
-        <is>
-          <t>2018/2471</t>
-        </is>
-      </c>
-      <c r="L51" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M51" s="4" t="d">
-        <v>2018-09-12T00:00:00</v>
-      </c>
-      <c r="N51" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
+      <c r="A51" s="0"/>
+      <c r="B51" s="0"/>
+      <c r="C51" s="0"/>
+      <c r="D51" s="0"/>
+      <c r="E51" s="0"/>
+      <c r="F51" s="0"/>
+      <c r="G51" s="0"/>
+      <c r="H51" s="0"/>
+      <c r="I51" s="0"/>
+      <c r="J51" s="0"/>
+      <c r="K51" s="0"/>
+      <c r="L51" s="0"/>
+      <c r="M51" s="4"/>
+      <c r="N51" s="0"/>
       <c r="O51" s="0"/>
-      <c r="P51" s="0" t="n">
-        <v>82</v>
-      </c>
-      <c r="Q51" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R51" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P51" s="0"/>
+      <c r="Q51" s="0"/>
+      <c r="R51" s="0"/>
       <c r="S51" s="0"/>
       <c r="T51" s="0"/>
       <c r="U51" s="4"/>
-      <c r="V51" s="0" t="n">
-        <v>1478294</v>
-      </c>
-      <c r="W51" s="0" t="inlineStr">
-        <is>
-          <t>DOORS-(D)</t>
-        </is>
-      </c>
+      <c r="V51" s="0"/>
+      <c r="W51" s="0"/>
       <c r="X51" s="0" t="inlineStr">
         <is>
-          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
-        </is>
-      </c>
-      <c r="Y51" s="0" t="inlineStr">
-        <is>
           <t>LEFT DOOR HINGS BENT 1 PCS (DOOR UNLOCK)</t>
         </is>
       </c>
-      <c r="Z51" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA51" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB51" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y51" s="0"/>
+      <c r="Z51" s="0"/>
+      <c r="AA51" s="0"/>
     </row>
     <row r="52">
       <c r="A52" s="0" t="n">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>38758</v>
@@ -6206,120 +5461,41 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="0" t="n">
-        <v>48</v>
-      </c>
-      <c r="B53" s="0" t="n">
-        <v>38758</v>
-      </c>
-      <c r="C53" s="0" t="inlineStr">
-        <is>
-          <t>UACU5063971</t>
-        </is>
-      </c>
-      <c r="D53" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E53" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F53" s="0" t="inlineStr">
-        <is>
-          <t>GBX</t>
-        </is>
-      </c>
-      <c r="G53" s="0" t="inlineStr">
-        <is>
-          <t>HLG</t>
-        </is>
-      </c>
-      <c r="H53" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I53" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J53" s="0" t="inlineStr">
-        <is>
-          <t>ROBERT RICKMERS</t>
-        </is>
-      </c>
-      <c r="K53" s="0" t="inlineStr">
-        <is>
-          <t>2018/2471</t>
-        </is>
-      </c>
-      <c r="L53" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M53" s="4" t="d">
-        <v>2018-09-12T00:00:00</v>
-      </c>
-      <c r="N53" s="0" t="inlineStr">
-        <is>
-          <t>CLEANED</t>
-        </is>
-      </c>
+      <c r="A53" s="0"/>
+      <c r="B53" s="0"/>
+      <c r="C53" s="0"/>
+      <c r="D53" s="0"/>
+      <c r="E53" s="0"/>
+      <c r="F53" s="0"/>
+      <c r="G53" s="0"/>
+      <c r="H53" s="0"/>
+      <c r="I53" s="0"/>
+      <c r="J53" s="0"/>
+      <c r="K53" s="0"/>
+      <c r="L53" s="0"/>
+      <c r="M53" s="4"/>
+      <c r="N53" s="0"/>
       <c r="O53" s="0"/>
-      <c r="P53" s="0" t="n">
-        <v>82</v>
-      </c>
-      <c r="Q53" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R53" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P53" s="0"/>
+      <c r="Q53" s="0"/>
+      <c r="R53" s="0"/>
       <c r="S53" s="0"/>
       <c r="T53" s="0"/>
       <c r="U53" s="4"/>
-      <c r="V53" s="0" t="n">
-        <v>1478295</v>
-      </c>
-      <c r="W53" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V53" s="0"/>
+      <c r="W53" s="0"/>
       <c r="X53" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
-        </is>
-      </c>
-      <c r="Y53" s="0" t="inlineStr">
-        <is>
           <t>INTERIOR PANEL DIRTY</t>
         </is>
       </c>
-      <c r="Z53" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA53" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB53" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y53" s="0"/>
+      <c r="Z53" s="0"/>
+      <c r="AA53" s="0"/>
     </row>
     <row r="54">
       <c r="A54" s="0" t="n">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="B54" s="0" t="n">
         <v>38759</v>
@@ -6431,7 +5607,7 @@
     </row>
     <row r="55">
       <c r="A55" s="0" t="n">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="B55" s="0" t="n">
         <v>38760</v>
@@ -6543,7 +5719,7 @@
     </row>
     <row r="56">
       <c r="A56" s="0" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="B56" s="0" t="n">
         <v>38761</v>
@@ -6654,232 +5830,74 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="0" t="n">
-        <v>52</v>
-      </c>
-      <c r="B57" s="0" t="n">
-        <v>38761</v>
-      </c>
-      <c r="C57" s="0" t="inlineStr">
-        <is>
-          <t>BEAU4200684</t>
-        </is>
-      </c>
-      <c r="D57" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E57" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F57" s="0" t="inlineStr">
-        <is>
-          <t>GBX</t>
-        </is>
-      </c>
-      <c r="G57" s="0" t="inlineStr">
-        <is>
-          <t>HLG</t>
-        </is>
-      </c>
-      <c r="H57" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I57" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J57" s="0" t="inlineStr">
-        <is>
-          <t>TAICHUNG</t>
-        </is>
-      </c>
-      <c r="K57" s="0" t="inlineStr">
-        <is>
-          <t>2018/2677</t>
-        </is>
-      </c>
-      <c r="L57" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M57" s="4" t="d">
-        <v>2018-09-12T00:00:00</v>
-      </c>
-      <c r="N57" s="0" t="inlineStr">
-        <is>
-          <t>REPAIRED</t>
-        </is>
-      </c>
+      <c r="A57" s="0"/>
+      <c r="B57" s="0"/>
+      <c r="C57" s="0"/>
+      <c r="D57" s="0"/>
+      <c r="E57" s="0"/>
+      <c r="F57" s="0"/>
+      <c r="G57" s="0"/>
+      <c r="H57" s="0"/>
+      <c r="I57" s="0"/>
+      <c r="J57" s="0"/>
+      <c r="K57" s="0"/>
+      <c r="L57" s="0"/>
+      <c r="M57" s="4"/>
+      <c r="N57" s="0"/>
       <c r="O57" s="0"/>
-      <c r="P57" s="0" t="n">
-        <v>82</v>
-      </c>
-      <c r="Q57" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R57" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P57" s="0"/>
+      <c r="Q57" s="0"/>
+      <c r="R57" s="0"/>
       <c r="S57" s="0"/>
       <c r="T57" s="0"/>
       <c r="U57" s="4"/>
-      <c r="V57" s="0" t="n">
-        <v>1478299</v>
-      </c>
-      <c r="W57" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V57" s="0"/>
+      <c r="W57" s="0"/>
       <c r="X57" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
-        </is>
-      </c>
-      <c r="Y57" s="0" t="inlineStr">
-        <is>
           <t>INTERIOR PANEL DIRTY</t>
         </is>
       </c>
-      <c r="Z57" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA57" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB57" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y57" s="0"/>
+      <c r="Z57" s="0"/>
+      <c r="AA57" s="0"/>
     </row>
     <row r="58">
-      <c r="A58" s="0" t="n">
-        <v>53</v>
-      </c>
-      <c r="B58" s="0" t="n">
-        <v>38761</v>
-      </c>
-      <c r="C58" s="0" t="inlineStr">
-        <is>
-          <t>BEAU4200684</t>
-        </is>
-      </c>
-      <c r="D58" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E58" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F58" s="0" t="inlineStr">
-        <is>
-          <t>GBX</t>
-        </is>
-      </c>
-      <c r="G58" s="0" t="inlineStr">
-        <is>
-          <t>HLG</t>
-        </is>
-      </c>
-      <c r="H58" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I58" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J58" s="0" t="inlineStr">
-        <is>
-          <t>TAICHUNG</t>
-        </is>
-      </c>
-      <c r="K58" s="0" t="inlineStr">
-        <is>
-          <t>2018/2677</t>
-        </is>
-      </c>
-      <c r="L58" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M58" s="4" t="d">
-        <v>2018-09-12T00:00:00</v>
-      </c>
-      <c r="N58" s="0" t="inlineStr">
-        <is>
-          <t>REPAIRED</t>
-        </is>
-      </c>
+      <c r="A58" s="0"/>
+      <c r="B58" s="0"/>
+      <c r="C58" s="0"/>
+      <c r="D58" s="0"/>
+      <c r="E58" s="0"/>
+      <c r="F58" s="0"/>
+      <c r="G58" s="0"/>
+      <c r="H58" s="0"/>
+      <c r="I58" s="0"/>
+      <c r="J58" s="0"/>
+      <c r="K58" s="0"/>
+      <c r="L58" s="0"/>
+      <c r="M58" s="4"/>
+      <c r="N58" s="0"/>
       <c r="O58" s="0"/>
-      <c r="P58" s="0" t="n">
-        <v>82</v>
-      </c>
-      <c r="Q58" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R58" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P58" s="0"/>
+      <c r="Q58" s="0"/>
+      <c r="R58" s="0"/>
       <c r="S58" s="0"/>
       <c r="T58" s="0"/>
       <c r="U58" s="4"/>
-      <c r="V58" s="0" t="n">
-        <v>1478299</v>
-      </c>
-      <c r="W58" s="0" t="inlineStr">
-        <is>
-          <t>DOORS-(D)</t>
-        </is>
-      </c>
+      <c r="V58" s="0"/>
+      <c r="W58" s="0"/>
       <c r="X58" s="0" t="inlineStr">
         <is>
-          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
-        </is>
-      </c>
-      <c r="Y58" s="0" t="inlineStr">
-        <is>
           <t>RIGHT DOOR BOTTOM GASKET CUT 3"</t>
         </is>
       </c>
-      <c r="Z58" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA58" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB58" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y58" s="0"/>
+      <c r="Z58" s="0"/>
+      <c r="AA58" s="0"/>
     </row>
     <row r="59">
       <c r="A59" s="0" t="n">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="B59" s="0" t="n">
         <v>38764</v>
@@ -6990,232 +6008,74 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="0" t="n">
-        <v>55</v>
-      </c>
-      <c r="B60" s="0" t="n">
-        <v>38764</v>
-      </c>
-      <c r="C60" s="0" t="inlineStr">
-        <is>
-          <t>DRYU9008685</t>
-        </is>
-      </c>
-      <c r="D60" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E60" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F60" s="0" t="inlineStr">
-        <is>
-          <t>GBX</t>
-        </is>
-      </c>
-      <c r="G60" s="0" t="inlineStr">
-        <is>
-          <t>HLG</t>
-        </is>
-      </c>
-      <c r="H60" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I60" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J60" s="0" t="inlineStr">
-        <is>
-          <t>ROBERT RICKMERS</t>
-        </is>
-      </c>
-      <c r="K60" s="0" t="inlineStr">
-        <is>
-          <t>2018/2471</t>
-        </is>
-      </c>
-      <c r="L60" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M60" s="4" t="d">
-        <v>2018-09-12T00:00:00</v>
-      </c>
-      <c r="N60" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
+      <c r="A60" s="0"/>
+      <c r="B60" s="0"/>
+      <c r="C60" s="0"/>
+      <c r="D60" s="0"/>
+      <c r="E60" s="0"/>
+      <c r="F60" s="0"/>
+      <c r="G60" s="0"/>
+      <c r="H60" s="0"/>
+      <c r="I60" s="0"/>
+      <c r="J60" s="0"/>
+      <c r="K60" s="0"/>
+      <c r="L60" s="0"/>
+      <c r="M60" s="4"/>
+      <c r="N60" s="0"/>
       <c r="O60" s="0"/>
-      <c r="P60" s="0" t="n">
-        <v>82</v>
-      </c>
-      <c r="Q60" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R60" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P60" s="0"/>
+      <c r="Q60" s="0"/>
+      <c r="R60" s="0"/>
       <c r="S60" s="0"/>
       <c r="T60" s="0"/>
       <c r="U60" s="4"/>
-      <c r="V60" s="0" t="n">
-        <v>1478302</v>
-      </c>
-      <c r="W60" s="0" t="inlineStr">
-        <is>
-          <t>DOORS-(D)</t>
-        </is>
-      </c>
+      <c r="V60" s="0"/>
+      <c r="W60" s="0"/>
       <c r="X60" s="0" t="inlineStr">
         <is>
-          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
-        </is>
-      </c>
-      <c r="Y60" s="0" t="inlineStr">
-        <is>
           <t>LEFT DOOR TOP GASKET CUT 2"</t>
         </is>
       </c>
-      <c r="Z60" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA60" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB60" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y60" s="0"/>
+      <c r="Z60" s="0"/>
+      <c r="AA60" s="0"/>
     </row>
     <row r="61">
-      <c r="A61" s="0" t="n">
-        <v>56</v>
-      </c>
-      <c r="B61" s="0" t="n">
-        <v>38764</v>
-      </c>
-      <c r="C61" s="0" t="inlineStr">
-        <is>
-          <t>DRYU9008685</t>
-        </is>
-      </c>
-      <c r="D61" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E61" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F61" s="0" t="inlineStr">
-        <is>
-          <t>GBX</t>
-        </is>
-      </c>
-      <c r="G61" s="0" t="inlineStr">
-        <is>
-          <t>HLG</t>
-        </is>
-      </c>
-      <c r="H61" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I61" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J61" s="0" t="inlineStr">
-        <is>
-          <t>ROBERT RICKMERS</t>
-        </is>
-      </c>
-      <c r="K61" s="0" t="inlineStr">
-        <is>
-          <t>2018/2471</t>
-        </is>
-      </c>
-      <c r="L61" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M61" s="4" t="d">
-        <v>2018-09-12T00:00:00</v>
-      </c>
-      <c r="N61" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
+      <c r="A61" s="0"/>
+      <c r="B61" s="0"/>
+      <c r="C61" s="0"/>
+      <c r="D61" s="0"/>
+      <c r="E61" s="0"/>
+      <c r="F61" s="0"/>
+      <c r="G61" s="0"/>
+      <c r="H61" s="0"/>
+      <c r="I61" s="0"/>
+      <c r="J61" s="0"/>
+      <c r="K61" s="0"/>
+      <c r="L61" s="0"/>
+      <c r="M61" s="4"/>
+      <c r="N61" s="0"/>
       <c r="O61" s="0"/>
-      <c r="P61" s="0" t="n">
-        <v>82</v>
-      </c>
-      <c r="Q61" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R61" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P61" s="0"/>
+      <c r="Q61" s="0"/>
+      <c r="R61" s="0"/>
       <c r="S61" s="0"/>
       <c r="T61" s="0"/>
       <c r="U61" s="4"/>
-      <c r="V61" s="0" t="n">
-        <v>1478302</v>
-      </c>
-      <c r="W61" s="0" t="inlineStr">
-        <is>
-          <t>DOORS-(D)</t>
-        </is>
-      </c>
+      <c r="V61" s="0"/>
+      <c r="W61" s="0"/>
       <c r="X61" s="0" t="inlineStr">
         <is>
-          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
-        </is>
-      </c>
-      <c r="Y61" s="0" t="inlineStr">
-        <is>
           <t>LEFT DOOR LOCKBAR BOTTOM KEEPER BENT 1 PCS WITH LOCKBAR</t>
         </is>
       </c>
-      <c r="Z61" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA61" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB61" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y61" s="0"/>
+      <c r="Z61" s="0"/>
+      <c r="AA61" s="0"/>
     </row>
     <row r="62">
       <c r="A62" s="0" t="n">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="B62" s="0" t="n">
         <v>40030</v>
@@ -7326,116 +6186,37 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="0" t="n">
-        <v>58</v>
-      </c>
-      <c r="B63" s="0" t="n">
-        <v>40030</v>
-      </c>
-      <c r="C63" s="0" t="inlineStr">
-        <is>
-          <t>UACU3993201</t>
-        </is>
-      </c>
-      <c r="D63" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E63" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F63" s="0" t="inlineStr">
-        <is>
-          <t>GBX</t>
-        </is>
-      </c>
-      <c r="G63" s="0" t="inlineStr">
-        <is>
-          <t>HLG</t>
-        </is>
-      </c>
-      <c r="H63" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I63" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J63" s="0" t="inlineStr">
-        <is>
-          <t>OEL BANGLADESH</t>
-        </is>
-      </c>
-      <c r="K63" s="0" t="inlineStr">
-        <is>
-          <t>2478/2018</t>
-        </is>
-      </c>
-      <c r="L63" s="0" t="inlineStr">
-        <is>
-          <t>SAPL</t>
-        </is>
-      </c>
-      <c r="M63" s="4" t="d">
-        <v>2018-09-13T00:00:00</v>
-      </c>
-      <c r="N63" s="0" t="inlineStr">
-        <is>
-          <t>WASH</t>
-        </is>
-      </c>
+      <c r="A63" s="0"/>
+      <c r="B63" s="0"/>
+      <c r="C63" s="0"/>
+      <c r="D63" s="0"/>
+      <c r="E63" s="0"/>
+      <c r="F63" s="0"/>
+      <c r="G63" s="0"/>
+      <c r="H63" s="0"/>
+      <c r="I63" s="0"/>
+      <c r="J63" s="0"/>
+      <c r="K63" s="0"/>
+      <c r="L63" s="0"/>
+      <c r="M63" s="4"/>
+      <c r="N63" s="0"/>
       <c r="O63" s="0"/>
-      <c r="P63" s="0" t="n">
-        <v>81</v>
-      </c>
-      <c r="Q63" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="R63" s="0" t="inlineStr">
-        <is>
-          <t>Laden</t>
-        </is>
-      </c>
+      <c r="P63" s="0"/>
+      <c r="Q63" s="0"/>
+      <c r="R63" s="0"/>
       <c r="S63" s="0"/>
       <c r="T63" s="0"/>
       <c r="U63" s="4"/>
-      <c r="V63" s="0" t="n">
-        <v>1478893</v>
-      </c>
-      <c r="W63" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V63" s="0"/>
+      <c r="W63" s="0"/>
       <c r="X63" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
-        </is>
-      </c>
-      <c r="Y63" s="0" t="inlineStr">
-        <is>
           <t>INTERIOR PANEL DIRTY</t>
         </is>
       </c>
-      <c r="Z63" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA63" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB63" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y63" s="0"/>
+      <c r="Z63" s="0"/>
+      <c r="AA63" s="0"/>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>

--- a/reports/_HAPAG LIOYD AG_SUMMIT ALLIANCE PORT LIMITED (OCL)_container_report_2018-12-03_54_.xlsx
+++ b/reports/_HAPAG LIOYD AG_SUMMIT ALLIANCE PORT LIMITED (OCL)_container_report_2018-12-03_54_.xlsx
@@ -1302,14 +1302,14 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AA63"/>
+  <dimension ref="A1:B63"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="5"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="8.589887640449438" hidden="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="257.18988764044946" hidden="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="24.8561797752809"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="19.4561797752809"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="23.0561797752809"/>
@@ -1331,7 +1331,7 @@
     <col min="21" max="21" bestFit="true" customWidth="true" width="12.2561797752809"/>
     <col min="22" max="22" bestFit="true" customWidth="true" width="10.78988764044944"/>
     <col min="23" max="23" bestFit="true" customWidth="true" width="24.8561797752809"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="58.08988764044944"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="23.0561797752809"/>
     <col min="25" max="25" bestFit="true" customWidth="true" width="55.88988764044944"/>
     <col min="26" max="26" bestFit="true" customWidth="true" width="28.4561797752809"/>
     <col min="27" max="27" bestFit="true" customWidth="true" width="21.2561797752809"/>
@@ -1845,37 +1845,16 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="0"/>
-      <c r="B9" s="0"/>
-      <c r="C9" s="0"/>
-      <c r="D9" s="0"/>
-      <c r="E9" s="0"/>
-      <c r="F9" s="0"/>
-      <c r="G9" s="0"/>
-      <c r="H9" s="0"/>
-      <c r="I9" s="0"/>
-      <c r="J9" s="0"/>
-      <c r="K9" s="0"/>
-      <c r="L9" s="0"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="0"/>
-      <c r="O9" s="0"/>
-      <c r="P9" s="0"/>
-      <c r="Q9" s="0"/>
-      <c r="R9" s="0"/>
-      <c r="S9" s="0"/>
-      <c r="T9" s="0"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="0"/>
-      <c r="W9" s="0"/>
-      <c r="X9" s="0" t="inlineStr">
-        <is>
-          <t>RIGHT DOOR BOTTOM GASKET LOOSE 12'</t>
-        </is>
-      </c>
-      <c r="Y9" s="0"/>
-      <c r="Z9" s="0"/>
-      <c r="AA9" s="0"/>
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "RIGHT DOOR BOTTOM GASKET LOOSE 12'", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="n">
@@ -2326,37 +2305,16 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="0"/>
-      <c r="B14" s="0"/>
-      <c r="C14" s="0"/>
-      <c r="D14" s="0"/>
-      <c r="E14" s="0"/>
-      <c r="F14" s="0"/>
-      <c r="G14" s="0"/>
-      <c r="H14" s="0"/>
-      <c r="I14" s="0"/>
-      <c r="J14" s="0"/>
-      <c r="K14" s="0"/>
-      <c r="L14" s="0"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="0"/>
-      <c r="O14" s="0"/>
-      <c r="P14" s="0"/>
-      <c r="Q14" s="0"/>
-      <c r="R14" s="0"/>
-      <c r="S14" s="0"/>
-      <c r="T14" s="0"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="0"/>
-      <c r="W14" s="0"/>
-      <c r="X14" s="0" t="inlineStr">
-        <is>
-          <t>INTERIOR PANEL DIRTY</t>
-        </is>
-      </c>
-      <c r="Y14" s="0"/>
-      <c r="Z14" s="0"/>
-      <c r="AA14" s="0"/>
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL DIRTY", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="n">
@@ -2471,37 +2429,16 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="0"/>
-      <c r="B16" s="0"/>
-      <c r="C16" s="0"/>
-      <c r="D16" s="0"/>
-      <c r="E16" s="0"/>
-      <c r="F16" s="0"/>
-      <c r="G16" s="0"/>
-      <c r="H16" s="0"/>
-      <c r="I16" s="0"/>
-      <c r="J16" s="0"/>
-      <c r="K16" s="0"/>
-      <c r="L16" s="0"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="0"/>
-      <c r="O16" s="0"/>
-      <c r="P16" s="0"/>
-      <c r="Q16" s="0"/>
-      <c r="R16" s="0"/>
-      <c r="S16" s="0"/>
-      <c r="T16" s="0"/>
-      <c r="U16" s="4"/>
-      <c r="V16" s="0"/>
-      <c r="W16" s="0"/>
-      <c r="X16" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD NAILS FITTING 8 PES</t>
-        </is>
-      </c>
-      <c r="Y16" s="0"/>
-      <c r="Z16" s="0"/>
-      <c r="AA16" s="0"/>
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD NAILS FITTING 8 PES", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="n">
@@ -2616,70 +2553,28 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="0"/>
-      <c r="B18" s="0"/>
-      <c r="C18" s="0"/>
-      <c r="D18" s="0"/>
-      <c r="E18" s="0"/>
-      <c r="F18" s="0"/>
-      <c r="G18" s="0"/>
-      <c r="H18" s="0"/>
-      <c r="I18" s="0"/>
-      <c r="J18" s="0"/>
-      <c r="K18" s="0"/>
-      <c r="L18" s="0"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="0"/>
-      <c r="O18" s="0"/>
-      <c r="P18" s="0"/>
-      <c r="Q18" s="0"/>
-      <c r="R18" s="0"/>
-      <c r="S18" s="0"/>
-      <c r="T18" s="0"/>
-      <c r="U18" s="4"/>
-      <c r="V18" s="0"/>
-      <c r="W18" s="0"/>
-      <c r="X18" s="0" t="inlineStr">
-        <is>
-          <t>RIGHT SIDE PANEL PUSH IN 20" X 40</t>
-        </is>
-      </c>
-      <c r="Y18" s="0"/>
-      <c r="Z18" s="0"/>
-      <c r="AA18" s="0"/>
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "RIGHT SIDE PANEL PUSH IN 20\" X 40", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="0"/>
-      <c r="B19" s="0"/>
-      <c r="C19" s="0"/>
-      <c r="D19" s="0"/>
-      <c r="E19" s="0"/>
-      <c r="F19" s="0"/>
-      <c r="G19" s="0"/>
-      <c r="H19" s="0"/>
-      <c r="I19" s="0"/>
-      <c r="J19" s="0"/>
-      <c r="K19" s="0"/>
-      <c r="L19" s="0"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="0"/>
-      <c r="O19" s="0"/>
-      <c r="P19" s="0"/>
-      <c r="Q19" s="0"/>
-      <c r="R19" s="0"/>
-      <c r="S19" s="0"/>
-      <c r="T19" s="0"/>
-      <c r="U19" s="4"/>
-      <c r="V19" s="0"/>
-      <c r="W19" s="0"/>
-      <c r="X19" s="0" t="inlineStr">
-        <is>
-          <t>LEFT SIDE PANEL PUSH IN 20" 40"</t>
-        </is>
-      </c>
-      <c r="Y19" s="0"/>
-      <c r="Z19" s="0"/>
-      <c r="AA19" s="0"/>
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "LEFT SIDE PANEL PUSH IN 20\" 40\"", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="n">
@@ -2906,37 +2801,16 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="0"/>
-      <c r="B22" s="0"/>
-      <c r="C22" s="0"/>
-      <c r="D22" s="0"/>
-      <c r="E22" s="0"/>
-      <c r="F22" s="0"/>
-      <c r="G22" s="0"/>
-      <c r="H22" s="0"/>
-      <c r="I22" s="0"/>
-      <c r="J22" s="0"/>
-      <c r="K22" s="0"/>
-      <c r="L22" s="0"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="0"/>
-      <c r="O22" s="0"/>
-      <c r="P22" s="0"/>
-      <c r="Q22" s="0"/>
-      <c r="R22" s="0"/>
-      <c r="S22" s="0"/>
-      <c r="T22" s="0"/>
-      <c r="U22" s="4"/>
-      <c r="V22" s="0"/>
-      <c r="W22" s="0"/>
-      <c r="X22" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD NAILS FITTING 8 PES</t>
-        </is>
-      </c>
-      <c r="Y22" s="0"/>
-      <c r="Z22" s="0"/>
-      <c r="AA22" s="0"/>
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD NAILS FITTING 8 PES", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="n">
@@ -3275,37 +3149,16 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="0"/>
-      <c r="B26" s="0"/>
-      <c r="C26" s="0"/>
-      <c r="D26" s="0"/>
-      <c r="E26" s="0"/>
-      <c r="F26" s="0"/>
-      <c r="G26" s="0"/>
-      <c r="H26" s="0"/>
-      <c r="I26" s="0"/>
-      <c r="J26" s="0"/>
-      <c r="K26" s="0"/>
-      <c r="L26" s="0"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="0"/>
-      <c r="O26" s="0"/>
-      <c r="P26" s="0"/>
-      <c r="Q26" s="0"/>
-      <c r="R26" s="0"/>
-      <c r="S26" s="0"/>
-      <c r="T26" s="0"/>
-      <c r="U26" s="4"/>
-      <c r="V26" s="0"/>
-      <c r="W26" s="0"/>
-      <c r="X26" s="0" t="inlineStr">
-        <is>
-          <t>INTERIRO PANEL DIRTY</t>
-        </is>
-      </c>
-      <c r="Y26" s="0"/>
-      <c r="Z26" s="0"/>
-      <c r="AA26" s="0"/>
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIRO PANEL DIRTY", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="n">
@@ -3420,37 +3273,16 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="0"/>
-      <c r="B28" s="0"/>
-      <c r="C28" s="0"/>
-      <c r="D28" s="0"/>
-      <c r="E28" s="0"/>
-      <c r="F28" s="0"/>
-      <c r="G28" s="0"/>
-      <c r="H28" s="0"/>
-      <c r="I28" s="0"/>
-      <c r="J28" s="0"/>
-      <c r="K28" s="0"/>
-      <c r="L28" s="0"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="0"/>
-      <c r="O28" s="0"/>
-      <c r="P28" s="0"/>
-      <c r="Q28" s="0"/>
-      <c r="R28" s="0"/>
-      <c r="S28" s="0"/>
-      <c r="T28" s="0"/>
-      <c r="U28" s="4"/>
-      <c r="V28" s="0"/>
-      <c r="W28" s="0"/>
-      <c r="X28" s="0" t="inlineStr">
-        <is>
-          <t>INTERIOR PANEL DIRTY</t>
-        </is>
-      </c>
-      <c r="Y28" s="0"/>
-      <c r="Z28" s="0"/>
-      <c r="AA28" s="0"/>
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL DIRTY", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="n">
@@ -3565,70 +3397,28 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="0"/>
-      <c r="B30" s="0"/>
-      <c r="C30" s="0"/>
-      <c r="D30" s="0"/>
-      <c r="E30" s="0"/>
-      <c r="F30" s="0"/>
-      <c r="G30" s="0"/>
-      <c r="H30" s="0"/>
-      <c r="I30" s="0"/>
-      <c r="J30" s="0"/>
-      <c r="K30" s="0"/>
-      <c r="L30" s="0"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="0"/>
-      <c r="O30" s="0"/>
-      <c r="P30" s="0"/>
-      <c r="Q30" s="0"/>
-      <c r="R30" s="0"/>
-      <c r="S30" s="0"/>
-      <c r="T30" s="0"/>
-      <c r="U30" s="4"/>
-      <c r="V30" s="0"/>
-      <c r="W30" s="0"/>
-      <c r="X30" s="0" t="inlineStr">
-        <is>
-          <t>RIGHT DOOR LOCK BAR BENT 01 PCS</t>
-        </is>
-      </c>
-      <c r="Y30" s="0"/>
-      <c r="Z30" s="0"/>
-      <c r="AA30" s="0"/>
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "RIGHT DOOR LOCK BAR BENT 01 PCS", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="31">
-      <c r="A31" s="0"/>
-      <c r="B31" s="0"/>
-      <c r="C31" s="0"/>
-      <c r="D31" s="0"/>
-      <c r="E31" s="0"/>
-      <c r="F31" s="0"/>
-      <c r="G31" s="0"/>
-      <c r="H31" s="0"/>
-      <c r="I31" s="0"/>
-      <c r="J31" s="0"/>
-      <c r="K31" s="0"/>
-      <c r="L31" s="0"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="0"/>
-      <c r="O31" s="0"/>
-      <c r="P31" s="0"/>
-      <c r="Q31" s="0"/>
-      <c r="R31" s="0"/>
-      <c r="S31" s="0"/>
-      <c r="T31" s="0"/>
-      <c r="U31" s="4"/>
-      <c r="V31" s="0"/>
-      <c r="W31" s="0"/>
-      <c r="X31" s="0" t="inlineStr">
-        <is>
-          <t>RIGHT DOOR BOTTOM KEEPER BENT 01 PCS</t>
-        </is>
-      </c>
-      <c r="Y31" s="0"/>
-      <c r="Z31" s="0"/>
-      <c r="AA31" s="0"/>
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "RIGHT DOOR BOTTOM KEEPER BENT 01 PCS", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="n">
@@ -4079,37 +3869,16 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="0"/>
-      <c r="B36" s="0"/>
-      <c r="C36" s="0"/>
-      <c r="D36" s="0"/>
-      <c r="E36" s="0"/>
-      <c r="F36" s="0"/>
-      <c r="G36" s="0"/>
-      <c r="H36" s="0"/>
-      <c r="I36" s="0"/>
-      <c r="J36" s="0"/>
-      <c r="K36" s="0"/>
-      <c r="L36" s="0"/>
-      <c r="M36" s="4"/>
-      <c r="N36" s="0"/>
-      <c r="O36" s="0"/>
-      <c r="P36" s="0"/>
-      <c r="Q36" s="0"/>
-      <c r="R36" s="0"/>
-      <c r="S36" s="0"/>
-      <c r="T36" s="0"/>
-      <c r="U36" s="4"/>
-      <c r="V36" s="0"/>
-      <c r="W36" s="0"/>
-      <c r="X36" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD NAILS FITTINGS AT VARIOUS PLASE</t>
-        </is>
-      </c>
-      <c r="Y36" s="0"/>
-      <c r="Z36" s="0"/>
-      <c r="AA36" s="0"/>
+      <c r="A36" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B36" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "FLOOR BOARD NAILS FITTINGS AT VARIOUS PLASE", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="n">
@@ -4536,37 +4305,16 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="0"/>
-      <c r="B41" s="0"/>
-      <c r="C41" s="0"/>
-      <c r="D41" s="0"/>
-      <c r="E41" s="0"/>
-      <c r="F41" s="0"/>
-      <c r="G41" s="0"/>
-      <c r="H41" s="0"/>
-      <c r="I41" s="0"/>
-      <c r="J41" s="0"/>
-      <c r="K41" s="0"/>
-      <c r="L41" s="0"/>
-      <c r="M41" s="4"/>
-      <c r="N41" s="0"/>
-      <c r="O41" s="0"/>
-      <c r="P41" s="0"/>
-      <c r="Q41" s="0"/>
-      <c r="R41" s="0"/>
-      <c r="S41" s="0"/>
-      <c r="T41" s="0"/>
-      <c r="U41" s="4"/>
-      <c r="V41" s="0"/>
-      <c r="W41" s="0"/>
-      <c r="X41" s="0" t="inlineStr">
-        <is>
-          <t>LEFT DOOR HINGERS PIN MISSING 01 PCS</t>
-        </is>
-      </c>
-      <c r="Y41" s="0"/>
-      <c r="Z41" s="0"/>
-      <c r="AA41" s="0"/>
+      <c r="A41" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B41" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "LEFT DOOR HINGERS PIN MISSING 01 PCS", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="n">
@@ -4881,37 +4629,16 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="0"/>
-      <c r="B45" s="0"/>
-      <c r="C45" s="0"/>
-      <c r="D45" s="0"/>
-      <c r="E45" s="0"/>
-      <c r="F45" s="0"/>
-      <c r="G45" s="0"/>
-      <c r="H45" s="0"/>
-      <c r="I45" s="0"/>
-      <c r="J45" s="0"/>
-      <c r="K45" s="0"/>
-      <c r="L45" s="0"/>
-      <c r="M45" s="4"/>
-      <c r="N45" s="0"/>
-      <c r="O45" s="0"/>
-      <c r="P45" s="0"/>
-      <c r="Q45" s="0"/>
-      <c r="R45" s="0"/>
-      <c r="S45" s="0"/>
-      <c r="T45" s="0"/>
-      <c r="U45" s="4"/>
-      <c r="V45" s="0"/>
-      <c r="W45" s="0"/>
-      <c r="X45" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD NAILS FITTING 03 PLS</t>
-        </is>
-      </c>
-      <c r="Y45" s="0"/>
-      <c r="Z45" s="0"/>
-      <c r="AA45" s="0"/>
+      <c r="A45" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B45" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD NAILS FITTING 03 PLS", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="0" t="n">
@@ -5026,37 +4753,16 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="0"/>
-      <c r="B47" s="0"/>
-      <c r="C47" s="0"/>
-      <c r="D47" s="0"/>
-      <c r="E47" s="0"/>
-      <c r="F47" s="0"/>
-      <c r="G47" s="0"/>
-      <c r="H47" s="0"/>
-      <c r="I47" s="0"/>
-      <c r="J47" s="0"/>
-      <c r="K47" s="0"/>
-      <c r="L47" s="0"/>
-      <c r="M47" s="4"/>
-      <c r="N47" s="0"/>
-      <c r="O47" s="0"/>
-      <c r="P47" s="0"/>
-      <c r="Q47" s="0"/>
-      <c r="R47" s="0"/>
-      <c r="S47" s="0"/>
-      <c r="T47" s="0"/>
-      <c r="U47" s="4"/>
-      <c r="V47" s="0"/>
-      <c r="W47" s="0"/>
-      <c r="X47" s="0" t="inlineStr">
-        <is>
-          <t>INTERIOR PANEL DIRTY</t>
-        </is>
-      </c>
-      <c r="Y47" s="0"/>
-      <c r="Z47" s="0"/>
-      <c r="AA47" s="0"/>
+      <c r="A47" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B47" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL DIRTY", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="0" t="n">
@@ -5171,37 +4877,16 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="0"/>
-      <c r="B49" s="0"/>
-      <c r="C49" s="0"/>
-      <c r="D49" s="0"/>
-      <c r="E49" s="0"/>
-      <c r="F49" s="0"/>
-      <c r="G49" s="0"/>
-      <c r="H49" s="0"/>
-      <c r="I49" s="0"/>
-      <c r="J49" s="0"/>
-      <c r="K49" s="0"/>
-      <c r="L49" s="0"/>
-      <c r="M49" s="4"/>
-      <c r="N49" s="0"/>
-      <c r="O49" s="0"/>
-      <c r="P49" s="0"/>
-      <c r="Q49" s="0"/>
-      <c r="R49" s="0"/>
-      <c r="S49" s="0"/>
-      <c r="T49" s="0"/>
-      <c r="U49" s="4"/>
-      <c r="V49" s="0"/>
-      <c r="W49" s="0"/>
-      <c r="X49" s="0" t="inlineStr">
-        <is>
-          <t>INTERIOR PANEL INK</t>
-        </is>
-      </c>
-      <c r="Y49" s="0"/>
-      <c r="Z49" s="0"/>
-      <c r="AA49" s="0"/>
+      <c r="A49" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B49" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL INK", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="0" t="n">
@@ -5316,37 +5001,16 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="0"/>
-      <c r="B51" s="0"/>
-      <c r="C51" s="0"/>
-      <c r="D51" s="0"/>
-      <c r="E51" s="0"/>
-      <c r="F51" s="0"/>
-      <c r="G51" s="0"/>
-      <c r="H51" s="0"/>
-      <c r="I51" s="0"/>
-      <c r="J51" s="0"/>
-      <c r="K51" s="0"/>
-      <c r="L51" s="0"/>
-      <c r="M51" s="4"/>
-      <c r="N51" s="0"/>
-      <c r="O51" s="0"/>
-      <c r="P51" s="0"/>
-      <c r="Q51" s="0"/>
-      <c r="R51" s="0"/>
-      <c r="S51" s="0"/>
-      <c r="T51" s="0"/>
-      <c r="U51" s="4"/>
-      <c r="V51" s="0"/>
-      <c r="W51" s="0"/>
-      <c r="X51" s="0" t="inlineStr">
-        <is>
-          <t>LEFT DOOR HINGS BENT 1 PCS (DOOR UNLOCK)</t>
-        </is>
-      </c>
-      <c r="Y51" s="0"/>
-      <c r="Z51" s="0"/>
-      <c r="AA51" s="0"/>
+      <c r="A51" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B51" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "LEFT DOOR HINGS BENT 1 PCS (DOOR UNLOCK)", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="0" t="n">
@@ -5461,37 +5125,16 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="0"/>
-      <c r="B53" s="0"/>
-      <c r="C53" s="0"/>
-      <c r="D53" s="0"/>
-      <c r="E53" s="0"/>
-      <c r="F53" s="0"/>
-      <c r="G53" s="0"/>
-      <c r="H53" s="0"/>
-      <c r="I53" s="0"/>
-      <c r="J53" s="0"/>
-      <c r="K53" s="0"/>
-      <c r="L53" s="0"/>
-      <c r="M53" s="4"/>
-      <c r="N53" s="0"/>
-      <c r="O53" s="0"/>
-      <c r="P53" s="0"/>
-      <c r="Q53" s="0"/>
-      <c r="R53" s="0"/>
-      <c r="S53" s="0"/>
-      <c r="T53" s="0"/>
-      <c r="U53" s="4"/>
-      <c r="V53" s="0"/>
-      <c r="W53" s="0"/>
-      <c r="X53" s="0" t="inlineStr">
-        <is>
-          <t>INTERIOR PANEL DIRTY</t>
-        </is>
-      </c>
-      <c r="Y53" s="0"/>
-      <c r="Z53" s="0"/>
-      <c r="AA53" s="0"/>
+      <c r="A53" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B53" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL DIRTY", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="0" t="n">
@@ -5830,70 +5473,28 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="0"/>
-      <c r="B57" s="0"/>
-      <c r="C57" s="0"/>
-      <c r="D57" s="0"/>
-      <c r="E57" s="0"/>
-      <c r="F57" s="0"/>
-      <c r="G57" s="0"/>
-      <c r="H57" s="0"/>
-      <c r="I57" s="0"/>
-      <c r="J57" s="0"/>
-      <c r="K57" s="0"/>
-      <c r="L57" s="0"/>
-      <c r="M57" s="4"/>
-      <c r="N57" s="0"/>
-      <c r="O57" s="0"/>
-      <c r="P57" s="0"/>
-      <c r="Q57" s="0"/>
-      <c r="R57" s="0"/>
-      <c r="S57" s="0"/>
-      <c r="T57" s="0"/>
-      <c r="U57" s="4"/>
-      <c r="V57" s="0"/>
-      <c r="W57" s="0"/>
-      <c r="X57" s="0" t="inlineStr">
-        <is>
-          <t>INTERIOR PANEL DIRTY</t>
-        </is>
-      </c>
-      <c r="Y57" s="0"/>
-      <c r="Z57" s="0"/>
-      <c r="AA57" s="0"/>
+      <c r="A57" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B57" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL DIRTY", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="0"/>
-      <c r="B58" s="0"/>
-      <c r="C58" s="0"/>
-      <c r="D58" s="0"/>
-      <c r="E58" s="0"/>
-      <c r="F58" s="0"/>
-      <c r="G58" s="0"/>
-      <c r="H58" s="0"/>
-      <c r="I58" s="0"/>
-      <c r="J58" s="0"/>
-      <c r="K58" s="0"/>
-      <c r="L58" s="0"/>
-      <c r="M58" s="4"/>
-      <c r="N58" s="0"/>
-      <c r="O58" s="0"/>
-      <c r="P58" s="0"/>
-      <c r="Q58" s="0"/>
-      <c r="R58" s="0"/>
-      <c r="S58" s="0"/>
-      <c r="T58" s="0"/>
-      <c r="U58" s="4"/>
-      <c r="V58" s="0"/>
-      <c r="W58" s="0"/>
-      <c r="X58" s="0" t="inlineStr">
-        <is>
-          <t>RIGHT DOOR BOTTOM GASKET CUT 3"</t>
-        </is>
-      </c>
-      <c r="Y58" s="0"/>
-      <c r="Z58" s="0"/>
-      <c r="AA58" s="0"/>
+      <c r="A58" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B58" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "RIGHT DOOR BOTTOM GASKET CUT 3\"", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="0" t="n">
@@ -6008,70 +5609,28 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="0"/>
-      <c r="B60" s="0"/>
-      <c r="C60" s="0"/>
-      <c r="D60" s="0"/>
-      <c r="E60" s="0"/>
-      <c r="F60" s="0"/>
-      <c r="G60" s="0"/>
-      <c r="H60" s="0"/>
-      <c r="I60" s="0"/>
-      <c r="J60" s="0"/>
-      <c r="K60" s="0"/>
-      <c r="L60" s="0"/>
-      <c r="M60" s="4"/>
-      <c r="N60" s="0"/>
-      <c r="O60" s="0"/>
-      <c r="P60" s="0"/>
-      <c r="Q60" s="0"/>
-      <c r="R60" s="0"/>
-      <c r="S60" s="0"/>
-      <c r="T60" s="0"/>
-      <c r="U60" s="4"/>
-      <c r="V60" s="0"/>
-      <c r="W60" s="0"/>
-      <c r="X60" s="0" t="inlineStr">
-        <is>
-          <t>LEFT DOOR TOP GASKET CUT 2"</t>
-        </is>
-      </c>
-      <c r="Y60" s="0"/>
-      <c r="Z60" s="0"/>
-      <c r="AA60" s="0"/>
+      <c r="A60" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B60" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "LEFT DOOR TOP GASKET CUT 2\"", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="0"/>
-      <c r="B61" s="0"/>
-      <c r="C61" s="0"/>
-      <c r="D61" s="0"/>
-      <c r="E61" s="0"/>
-      <c r="F61" s="0"/>
-      <c r="G61" s="0"/>
-      <c r="H61" s="0"/>
-      <c r="I61" s="0"/>
-      <c r="J61" s="0"/>
-      <c r="K61" s="0"/>
-      <c r="L61" s="0"/>
-      <c r="M61" s="4"/>
-      <c r="N61" s="0"/>
-      <c r="O61" s="0"/>
-      <c r="P61" s="0"/>
-      <c r="Q61" s="0"/>
-      <c r="R61" s="0"/>
-      <c r="S61" s="0"/>
-      <c r="T61" s="0"/>
-      <c r="U61" s="4"/>
-      <c r="V61" s="0"/>
-      <c r="W61" s="0"/>
-      <c r="X61" s="0" t="inlineStr">
-        <is>
-          <t>LEFT DOOR LOCKBAR BOTTOM KEEPER BENT 1 PCS WITH LOCKBAR</t>
-        </is>
-      </c>
-      <c r="Y61" s="0"/>
-      <c r="Z61" s="0"/>
-      <c r="AA61" s="0"/>
+      <c r="A61" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B61" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "LEFT DOOR LOCKBAR BOTTOM KEEPER BENT 1 PCS WITH LOCKBAR", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="0" t="n">
@@ -6186,37 +5745,16 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="0"/>
-      <c r="B63" s="0"/>
-      <c r="C63" s="0"/>
-      <c r="D63" s="0"/>
-      <c r="E63" s="0"/>
-      <c r="F63" s="0"/>
-      <c r="G63" s="0"/>
-      <c r="H63" s="0"/>
-      <c r="I63" s="0"/>
-      <c r="J63" s="0"/>
-      <c r="K63" s="0"/>
-      <c r="L63" s="0"/>
-      <c r="M63" s="4"/>
-      <c r="N63" s="0"/>
-      <c r="O63" s="0"/>
-      <c r="P63" s="0"/>
-      <c r="Q63" s="0"/>
-      <c r="R63" s="0"/>
-      <c r="S63" s="0"/>
-      <c r="T63" s="0"/>
-      <c r="U63" s="4"/>
-      <c r="V63" s="0"/>
-      <c r="W63" s="0"/>
-      <c r="X63" s="0" t="inlineStr">
-        <is>
-          <t>INTERIOR PANEL DIRTY</t>
-        </is>
-      </c>
-      <c r="Y63" s="0"/>
-      <c r="Z63" s="0"/>
-      <c r="AA63" s="0"/>
+      <c r="A63" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B63" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL DIRTY", "", "", ""]</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>

--- a/reports/_HAPAG LIOYD AG_SUMMIT ALLIANCE PORT LIMITED (OCL)_container_report_2018-12-03_54_.xlsx
+++ b/reports/_HAPAG LIOYD AG_SUMMIT ALLIANCE PORT LIMITED (OCL)_container_report_2018-12-03_54_.xlsx
@@ -1302,14 +1302,14 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B63"/>
+  <dimension ref="A1:AB63"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="5"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="257.18988764044946" hidden="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="8.589887640449438" hidden="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="24.8561797752809"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="19.4561797752809"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="23.0561797752809"/>
@@ -1331,8 +1331,8 @@
     <col min="21" max="21" bestFit="true" customWidth="true" width="12.2561797752809"/>
     <col min="22" max="22" bestFit="true" customWidth="true" width="10.78988764044944"/>
     <col min="23" max="23" bestFit="true" customWidth="true" width="24.8561797752809"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="23.0561797752809"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="55.88988764044944"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="47.08988764044945"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="58.08988764044944"/>
     <col min="26" max="26" bestFit="true" customWidth="true" width="28.4561797752809"/>
     <col min="27" max="27" bestFit="true" customWidth="true" width="21.2561797752809"/>
     <col min="28" max="28" bestFit="true" customWidth="true" width="19.4561797752809"/>
@@ -1850,9 +1850,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B9" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "RIGHT DOOR BOTTOM GASKET LOOSE 12'", "", "", ""]</t>
+      <c r="B9" s="0"/>
+      <c r="C9" s="0"/>
+      <c r="D9" s="0"/>
+      <c r="E9" s="0"/>
+      <c r="F9" s="0"/>
+      <c r="G9" s="0"/>
+      <c r="H9" s="0"/>
+      <c r="I9" s="0"/>
+      <c r="J9" s="0"/>
+      <c r="K9" s="0"/>
+      <c r="L9" s="0"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="0"/>
+      <c r="O9" s="0"/>
+      <c r="P9" s="0"/>
+      <c r="Q9" s="0"/>
+      <c r="R9" s="0"/>
+      <c r="S9" s="0"/>
+      <c r="T9" s="0"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="0"/>
+      <c r="W9" s="0" t="inlineStr">
+        <is>
+          <t>DOORS-(D)</t>
+        </is>
+      </c>
+      <c r="X9" s="0" t="inlineStr">
+        <is>
+          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
+        </is>
+      </c>
+      <c r="Y9" s="0" t="inlineStr">
+        <is>
+          <t>RIGHT DOOR BOTTOM GASKET LOOSE 12'</t>
+        </is>
+      </c>
+      <c r="Z9" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA9" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB9" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -2310,9 +2356,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B14" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL DIRTY", "", "", ""]</t>
+      <c r="B14" s="0"/>
+      <c r="C14" s="0"/>
+      <c r="D14" s="0"/>
+      <c r="E14" s="0"/>
+      <c r="F14" s="0"/>
+      <c r="G14" s="0"/>
+      <c r="H14" s="0"/>
+      <c r="I14" s="0"/>
+      <c r="J14" s="0"/>
+      <c r="K14" s="0"/>
+      <c r="L14" s="0"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="0"/>
+      <c r="O14" s="0"/>
+      <c r="P14" s="0"/>
+      <c r="Q14" s="0"/>
+      <c r="R14" s="0"/>
+      <c r="S14" s="0"/>
+      <c r="T14" s="0"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="0"/>
+      <c r="W14" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X14" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y14" s="0" t="inlineStr">
+        <is>
+          <t>INTERIOR PANEL DIRTY</t>
+        </is>
+      </c>
+      <c r="Z14" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA14" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB14" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -2434,9 +2526,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B16" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD NAILS FITTING 8 PES", "", "", ""]</t>
+      <c r="B16" s="0"/>
+      <c r="C16" s="0"/>
+      <c r="D16" s="0"/>
+      <c r="E16" s="0"/>
+      <c r="F16" s="0"/>
+      <c r="G16" s="0"/>
+      <c r="H16" s="0"/>
+      <c r="I16" s="0"/>
+      <c r="J16" s="0"/>
+      <c r="K16" s="0"/>
+      <c r="L16" s="0"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="0"/>
+      <c r="O16" s="0"/>
+      <c r="P16" s="0"/>
+      <c r="Q16" s="0"/>
+      <c r="R16" s="0"/>
+      <c r="S16" s="0"/>
+      <c r="T16" s="0"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="0"/>
+      <c r="W16" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X16" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y16" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD NAILS FITTING 8 PES</t>
+        </is>
+      </c>
+      <c r="Z16" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA16" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB16" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -2558,9 +2696,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B18" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "RIGHT SIDE PANEL PUSH IN 20\" X 40", "", "", ""]</t>
+      <c r="B18" s="0"/>
+      <c r="C18" s="0"/>
+      <c r="D18" s="0"/>
+      <c r="E18" s="0"/>
+      <c r="F18" s="0"/>
+      <c r="G18" s="0"/>
+      <c r="H18" s="0"/>
+      <c r="I18" s="0"/>
+      <c r="J18" s="0"/>
+      <c r="K18" s="0"/>
+      <c r="L18" s="0"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="0"/>
+      <c r="O18" s="0"/>
+      <c r="P18" s="0"/>
+      <c r="Q18" s="0"/>
+      <c r="R18" s="0"/>
+      <c r="S18" s="0"/>
+      <c r="T18" s="0"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="0"/>
+      <c r="W18" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X18" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y18" s="0" t="inlineStr">
+        <is>
+          <t>RIGHT SIDE PANEL PUSH IN 20" X 40</t>
+        </is>
+      </c>
+      <c r="Z18" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA18" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB18" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -2570,9 +2754,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B19" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "LEFT SIDE PANEL PUSH IN 20\" 40\"", "", "", ""]</t>
+      <c r="B19" s="0"/>
+      <c r="C19" s="0"/>
+      <c r="D19" s="0"/>
+      <c r="E19" s="0"/>
+      <c r="F19" s="0"/>
+      <c r="G19" s="0"/>
+      <c r="H19" s="0"/>
+      <c r="I19" s="0"/>
+      <c r="J19" s="0"/>
+      <c r="K19" s="0"/>
+      <c r="L19" s="0"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="0"/>
+      <c r="O19" s="0"/>
+      <c r="P19" s="0"/>
+      <c r="Q19" s="0"/>
+      <c r="R19" s="0"/>
+      <c r="S19" s="0"/>
+      <c r="T19" s="0"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="0"/>
+      <c r="W19" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X19" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y19" s="0" t="inlineStr">
+        <is>
+          <t>LEFT SIDE PANEL PUSH IN 20" 40"</t>
+        </is>
+      </c>
+      <c r="Z19" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA19" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB19" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -2806,9 +3036,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B22" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD NAILS FITTING 8 PES", "", "", ""]</t>
+      <c r="B22" s="0"/>
+      <c r="C22" s="0"/>
+      <c r="D22" s="0"/>
+      <c r="E22" s="0"/>
+      <c r="F22" s="0"/>
+      <c r="G22" s="0"/>
+      <c r="H22" s="0"/>
+      <c r="I22" s="0"/>
+      <c r="J22" s="0"/>
+      <c r="K22" s="0"/>
+      <c r="L22" s="0"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="0"/>
+      <c r="O22" s="0"/>
+      <c r="P22" s="0"/>
+      <c r="Q22" s="0"/>
+      <c r="R22" s="0"/>
+      <c r="S22" s="0"/>
+      <c r="T22" s="0"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="0"/>
+      <c r="W22" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X22" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y22" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD NAILS FITTING 8 PES</t>
+        </is>
+      </c>
+      <c r="Z22" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA22" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB22" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -3154,9 +3430,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B26" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIRO PANEL DIRTY", "", "", ""]</t>
+      <c r="B26" s="0"/>
+      <c r="C26" s="0"/>
+      <c r="D26" s="0"/>
+      <c r="E26" s="0"/>
+      <c r="F26" s="0"/>
+      <c r="G26" s="0"/>
+      <c r="H26" s="0"/>
+      <c r="I26" s="0"/>
+      <c r="J26" s="0"/>
+      <c r="K26" s="0"/>
+      <c r="L26" s="0"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="0"/>
+      <c r="O26" s="0"/>
+      <c r="P26" s="0"/>
+      <c r="Q26" s="0"/>
+      <c r="R26" s="0"/>
+      <c r="S26" s="0"/>
+      <c r="T26" s="0"/>
+      <c r="U26" s="4"/>
+      <c r="V26" s="0"/>
+      <c r="W26" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X26" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y26" s="0" t="inlineStr">
+        <is>
+          <t>INTERIRO PANEL DIRTY</t>
+        </is>
+      </c>
+      <c r="Z26" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA26" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB26" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -3278,9 +3600,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B28" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL DIRTY", "", "", ""]</t>
+      <c r="B28" s="0"/>
+      <c r="C28" s="0"/>
+      <c r="D28" s="0"/>
+      <c r="E28" s="0"/>
+      <c r="F28" s="0"/>
+      <c r="G28" s="0"/>
+      <c r="H28" s="0"/>
+      <c r="I28" s="0"/>
+      <c r="J28" s="0"/>
+      <c r="K28" s="0"/>
+      <c r="L28" s="0"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="0"/>
+      <c r="O28" s="0"/>
+      <c r="P28" s="0"/>
+      <c r="Q28" s="0"/>
+      <c r="R28" s="0"/>
+      <c r="S28" s="0"/>
+      <c r="T28" s="0"/>
+      <c r="U28" s="4"/>
+      <c r="V28" s="0"/>
+      <c r="W28" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X28" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y28" s="0" t="inlineStr">
+        <is>
+          <t>INTERIOR PANEL DIRTY</t>
+        </is>
+      </c>
+      <c r="Z28" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA28" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB28" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -3402,9 +3770,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B30" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "RIGHT DOOR LOCK BAR BENT 01 PCS", "", "", ""]</t>
+      <c r="B30" s="0"/>
+      <c r="C30" s="0"/>
+      <c r="D30" s="0"/>
+      <c r="E30" s="0"/>
+      <c r="F30" s="0"/>
+      <c r="G30" s="0"/>
+      <c r="H30" s="0"/>
+      <c r="I30" s="0"/>
+      <c r="J30" s="0"/>
+      <c r="K30" s="0"/>
+      <c r="L30" s="0"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="0"/>
+      <c r="O30" s="0"/>
+      <c r="P30" s="0"/>
+      <c r="Q30" s="0"/>
+      <c r="R30" s="0"/>
+      <c r="S30" s="0"/>
+      <c r="T30" s="0"/>
+      <c r="U30" s="4"/>
+      <c r="V30" s="0"/>
+      <c r="W30" s="0" t="inlineStr">
+        <is>
+          <t>DOORS-(D)</t>
+        </is>
+      </c>
+      <c r="X30" s="0" t="inlineStr">
+        <is>
+          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
+        </is>
+      </c>
+      <c r="Y30" s="0" t="inlineStr">
+        <is>
+          <t>RIGHT DOOR LOCK BAR BENT 01 PCS</t>
+        </is>
+      </c>
+      <c r="Z30" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA30" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB30" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -3414,9 +3828,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B31" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "RIGHT DOOR BOTTOM KEEPER BENT 01 PCS", "", "", ""]</t>
+      <c r="B31" s="0"/>
+      <c r="C31" s="0"/>
+      <c r="D31" s="0"/>
+      <c r="E31" s="0"/>
+      <c r="F31" s="0"/>
+      <c r="G31" s="0"/>
+      <c r="H31" s="0"/>
+      <c r="I31" s="0"/>
+      <c r="J31" s="0"/>
+      <c r="K31" s="0"/>
+      <c r="L31" s="0"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="0"/>
+      <c r="O31" s="0"/>
+      <c r="P31" s="0"/>
+      <c r="Q31" s="0"/>
+      <c r="R31" s="0"/>
+      <c r="S31" s="0"/>
+      <c r="T31" s="0"/>
+      <c r="U31" s="4"/>
+      <c r="V31" s="0"/>
+      <c r="W31" s="0" t="inlineStr">
+        <is>
+          <t>DOORS-(D)</t>
+        </is>
+      </c>
+      <c r="X31" s="0" t="inlineStr">
+        <is>
+          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
+        </is>
+      </c>
+      <c r="Y31" s="0" t="inlineStr">
+        <is>
+          <t>RIGHT DOOR BOTTOM KEEPER BENT 01 PCS</t>
+        </is>
+      </c>
+      <c r="Z31" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA31" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB31" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -3874,9 +4334,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B36" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "FLOOR BOARD NAILS FITTINGS AT VARIOUS PLASE", "", "", ""]</t>
+      <c r="B36" s="0"/>
+      <c r="C36" s="0"/>
+      <c r="D36" s="0"/>
+      <c r="E36" s="0"/>
+      <c r="F36" s="0"/>
+      <c r="G36" s="0"/>
+      <c r="H36" s="0"/>
+      <c r="I36" s="0"/>
+      <c r="J36" s="0"/>
+      <c r="K36" s="0"/>
+      <c r="L36" s="0"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="0"/>
+      <c r="O36" s="0"/>
+      <c r="P36" s="0"/>
+      <c r="Q36" s="0"/>
+      <c r="R36" s="0"/>
+      <c r="S36" s="0"/>
+      <c r="T36" s="0"/>
+      <c r="U36" s="4"/>
+      <c r="V36" s="0"/>
+      <c r="W36" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X36" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD-(FLOOR BOARD)</t>
+        </is>
+      </c>
+      <c r="Y36" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD NAILS FITTINGS AT VARIOUS PLASE</t>
+        </is>
+      </c>
+      <c r="Z36" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA36" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB36" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -4310,9 +4816,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B41" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "LEFT DOOR HINGERS PIN MISSING 01 PCS", "", "", ""]</t>
+      <c r="B41" s="0"/>
+      <c r="C41" s="0"/>
+      <c r="D41" s="0"/>
+      <c r="E41" s="0"/>
+      <c r="F41" s="0"/>
+      <c r="G41" s="0"/>
+      <c r="H41" s="0"/>
+      <c r="I41" s="0"/>
+      <c r="J41" s="0"/>
+      <c r="K41" s="0"/>
+      <c r="L41" s="0"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="0"/>
+      <c r="O41" s="0"/>
+      <c r="P41" s="0"/>
+      <c r="Q41" s="0"/>
+      <c r="R41" s="0"/>
+      <c r="S41" s="0"/>
+      <c r="T41" s="0"/>
+      <c r="U41" s="4"/>
+      <c r="V41" s="0"/>
+      <c r="W41" s="0" t="inlineStr">
+        <is>
+          <t>DOORS-(D)</t>
+        </is>
+      </c>
+      <c r="X41" s="0" t="inlineStr">
+        <is>
+          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
+        </is>
+      </c>
+      <c r="Y41" s="0" t="inlineStr">
+        <is>
+          <t>LEFT DOOR HINGERS PIN MISSING 01 PCS</t>
+        </is>
+      </c>
+      <c r="Z41" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA41" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB41" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -4634,9 +5186,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B45" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD NAILS FITTING 03 PLS", "", "", ""]</t>
+      <c r="B45" s="0"/>
+      <c r="C45" s="0"/>
+      <c r="D45" s="0"/>
+      <c r="E45" s="0"/>
+      <c r="F45" s="0"/>
+      <c r="G45" s="0"/>
+      <c r="H45" s="0"/>
+      <c r="I45" s="0"/>
+      <c r="J45" s="0"/>
+      <c r="K45" s="0"/>
+      <c r="L45" s="0"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="0"/>
+      <c r="O45" s="0"/>
+      <c r="P45" s="0"/>
+      <c r="Q45" s="0"/>
+      <c r="R45" s="0"/>
+      <c r="S45" s="0"/>
+      <c r="T45" s="0"/>
+      <c r="U45" s="4"/>
+      <c r="V45" s="0"/>
+      <c r="W45" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X45" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y45" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD NAILS FITTING 03 PLS</t>
+        </is>
+      </c>
+      <c r="Z45" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA45" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB45" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -4758,9 +5356,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B47" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL DIRTY", "", "", ""]</t>
+      <c r="B47" s="0"/>
+      <c r="C47" s="0"/>
+      <c r="D47" s="0"/>
+      <c r="E47" s="0"/>
+      <c r="F47" s="0"/>
+      <c r="G47" s="0"/>
+      <c r="H47" s="0"/>
+      <c r="I47" s="0"/>
+      <c r="J47" s="0"/>
+      <c r="K47" s="0"/>
+      <c r="L47" s="0"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="0"/>
+      <c r="O47" s="0"/>
+      <c r="P47" s="0"/>
+      <c r="Q47" s="0"/>
+      <c r="R47" s="0"/>
+      <c r="S47" s="0"/>
+      <c r="T47" s="0"/>
+      <c r="U47" s="4"/>
+      <c r="V47" s="0"/>
+      <c r="W47" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X47" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y47" s="0" t="inlineStr">
+        <is>
+          <t>INTERIOR PANEL DIRTY</t>
+        </is>
+      </c>
+      <c r="Z47" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA47" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB47" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -4882,9 +5526,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B49" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL INK", "", "", ""]</t>
+      <c r="B49" s="0"/>
+      <c r="C49" s="0"/>
+      <c r="D49" s="0"/>
+      <c r="E49" s="0"/>
+      <c r="F49" s="0"/>
+      <c r="G49" s="0"/>
+      <c r="H49" s="0"/>
+      <c r="I49" s="0"/>
+      <c r="J49" s="0"/>
+      <c r="K49" s="0"/>
+      <c r="L49" s="0"/>
+      <c r="M49" s="4"/>
+      <c r="N49" s="0"/>
+      <c r="O49" s="0"/>
+      <c r="P49" s="0"/>
+      <c r="Q49" s="0"/>
+      <c r="R49" s="0"/>
+      <c r="S49" s="0"/>
+      <c r="T49" s="0"/>
+      <c r="U49" s="4"/>
+      <c r="V49" s="0"/>
+      <c r="W49" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X49" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y49" s="0" t="inlineStr">
+        <is>
+          <t>INTERIOR PANEL INK</t>
+        </is>
+      </c>
+      <c r="Z49" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA49" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB49" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -5006,9 +5696,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B51" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "LEFT DOOR HINGS BENT 1 PCS (DOOR UNLOCK)", "", "", ""]</t>
+      <c r="B51" s="0"/>
+      <c r="C51" s="0"/>
+      <c r="D51" s="0"/>
+      <c r="E51" s="0"/>
+      <c r="F51" s="0"/>
+      <c r="G51" s="0"/>
+      <c r="H51" s="0"/>
+      <c r="I51" s="0"/>
+      <c r="J51" s="0"/>
+      <c r="K51" s="0"/>
+      <c r="L51" s="0"/>
+      <c r="M51" s="4"/>
+      <c r="N51" s="0"/>
+      <c r="O51" s="0"/>
+      <c r="P51" s="0"/>
+      <c r="Q51" s="0"/>
+      <c r="R51" s="0"/>
+      <c r="S51" s="0"/>
+      <c r="T51" s="0"/>
+      <c r="U51" s="4"/>
+      <c r="V51" s="0"/>
+      <c r="W51" s="0" t="inlineStr">
+        <is>
+          <t>DOORS-(D)</t>
+        </is>
+      </c>
+      <c r="X51" s="0" t="inlineStr">
+        <is>
+          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
+        </is>
+      </c>
+      <c r="Y51" s="0" t="inlineStr">
+        <is>
+          <t>LEFT DOOR HINGS BENT 1 PCS (DOOR UNLOCK)</t>
+        </is>
+      </c>
+      <c r="Z51" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA51" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB51" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -5130,9 +5866,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B53" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL DIRTY", "", "", ""]</t>
+      <c r="B53" s="0"/>
+      <c r="C53" s="0"/>
+      <c r="D53" s="0"/>
+      <c r="E53" s="0"/>
+      <c r="F53" s="0"/>
+      <c r="G53" s="0"/>
+      <c r="H53" s="0"/>
+      <c r="I53" s="0"/>
+      <c r="J53" s="0"/>
+      <c r="K53" s="0"/>
+      <c r="L53" s="0"/>
+      <c r="M53" s="4"/>
+      <c r="N53" s="0"/>
+      <c r="O53" s="0"/>
+      <c r="P53" s="0"/>
+      <c r="Q53" s="0"/>
+      <c r="R53" s="0"/>
+      <c r="S53" s="0"/>
+      <c r="T53" s="0"/>
+      <c r="U53" s="4"/>
+      <c r="V53" s="0"/>
+      <c r="W53" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X53" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y53" s="0" t="inlineStr">
+        <is>
+          <t>INTERIOR PANEL DIRTY</t>
+        </is>
+      </c>
+      <c r="Z53" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA53" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB53" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -5478,9 +6260,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B57" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL DIRTY", "", "", ""]</t>
+      <c r="B57" s="0"/>
+      <c r="C57" s="0"/>
+      <c r="D57" s="0"/>
+      <c r="E57" s="0"/>
+      <c r="F57" s="0"/>
+      <c r="G57" s="0"/>
+      <c r="H57" s="0"/>
+      <c r="I57" s="0"/>
+      <c r="J57" s="0"/>
+      <c r="K57" s="0"/>
+      <c r="L57" s="0"/>
+      <c r="M57" s="4"/>
+      <c r="N57" s="0"/>
+      <c r="O57" s="0"/>
+      <c r="P57" s="0"/>
+      <c r="Q57" s="0"/>
+      <c r="R57" s="0"/>
+      <c r="S57" s="0"/>
+      <c r="T57" s="0"/>
+      <c r="U57" s="4"/>
+      <c r="V57" s="0"/>
+      <c r="W57" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X57" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y57" s="0" t="inlineStr">
+        <is>
+          <t>INTERIOR PANEL DIRTY</t>
+        </is>
+      </c>
+      <c r="Z57" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA57" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB57" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -5490,9 +6318,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B58" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "RIGHT DOOR BOTTOM GASKET CUT 3\"", "", "", ""]</t>
+      <c r="B58" s="0"/>
+      <c r="C58" s="0"/>
+      <c r="D58" s="0"/>
+      <c r="E58" s="0"/>
+      <c r="F58" s="0"/>
+      <c r="G58" s="0"/>
+      <c r="H58" s="0"/>
+      <c r="I58" s="0"/>
+      <c r="J58" s="0"/>
+      <c r="K58" s="0"/>
+      <c r="L58" s="0"/>
+      <c r="M58" s="4"/>
+      <c r="N58" s="0"/>
+      <c r="O58" s="0"/>
+      <c r="P58" s="0"/>
+      <c r="Q58" s="0"/>
+      <c r="R58" s="0"/>
+      <c r="S58" s="0"/>
+      <c r="T58" s="0"/>
+      <c r="U58" s="4"/>
+      <c r="V58" s="0"/>
+      <c r="W58" s="0" t="inlineStr">
+        <is>
+          <t>DOORS-(D)</t>
+        </is>
+      </c>
+      <c r="X58" s="0" t="inlineStr">
+        <is>
+          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
+        </is>
+      </c>
+      <c r="Y58" s="0" t="inlineStr">
+        <is>
+          <t>RIGHT DOOR BOTTOM GASKET CUT 3"</t>
+        </is>
+      </c>
+      <c r="Z58" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA58" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB58" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -5614,9 +6488,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B60" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "LEFT DOOR TOP GASKET CUT 2\"", "", "", ""]</t>
+      <c r="B60" s="0"/>
+      <c r="C60" s="0"/>
+      <c r="D60" s="0"/>
+      <c r="E60" s="0"/>
+      <c r="F60" s="0"/>
+      <c r="G60" s="0"/>
+      <c r="H60" s="0"/>
+      <c r="I60" s="0"/>
+      <c r="J60" s="0"/>
+      <c r="K60" s="0"/>
+      <c r="L60" s="0"/>
+      <c r="M60" s="4"/>
+      <c r="N60" s="0"/>
+      <c r="O60" s="0"/>
+      <c r="P60" s="0"/>
+      <c r="Q60" s="0"/>
+      <c r="R60" s="0"/>
+      <c r="S60" s="0"/>
+      <c r="T60" s="0"/>
+      <c r="U60" s="4"/>
+      <c r="V60" s="0"/>
+      <c r="W60" s="0" t="inlineStr">
+        <is>
+          <t>DOORS-(D)</t>
+        </is>
+      </c>
+      <c r="X60" s="0" t="inlineStr">
+        <is>
+          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
+        </is>
+      </c>
+      <c r="Y60" s="0" t="inlineStr">
+        <is>
+          <t>LEFT DOOR TOP GASKET CUT 2"</t>
+        </is>
+      </c>
+      <c r="Z60" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA60" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB60" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -5626,9 +6546,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B61" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "LEFT DOOR LOCKBAR BOTTOM KEEPER BENT 1 PCS WITH LOCKBAR", "", "", ""]</t>
+      <c r="B61" s="0"/>
+      <c r="C61" s="0"/>
+      <c r="D61" s="0"/>
+      <c r="E61" s="0"/>
+      <c r="F61" s="0"/>
+      <c r="G61" s="0"/>
+      <c r="H61" s="0"/>
+      <c r="I61" s="0"/>
+      <c r="J61" s="0"/>
+      <c r="K61" s="0"/>
+      <c r="L61" s="0"/>
+      <c r="M61" s="4"/>
+      <c r="N61" s="0"/>
+      <c r="O61" s="0"/>
+      <c r="P61" s="0"/>
+      <c r="Q61" s="0"/>
+      <c r="R61" s="0"/>
+      <c r="S61" s="0"/>
+      <c r="T61" s="0"/>
+      <c r="U61" s="4"/>
+      <c r="V61" s="0"/>
+      <c r="W61" s="0" t="inlineStr">
+        <is>
+          <t>DOORS-(D)</t>
+        </is>
+      </c>
+      <c r="X61" s="0" t="inlineStr">
+        <is>
+          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
+        </is>
+      </c>
+      <c r="Y61" s="0" t="inlineStr">
+        <is>
+          <t>LEFT DOOR LOCKBAR BOTTOM KEEPER BENT 1 PCS WITH LOCKBAR</t>
+        </is>
+      </c>
+      <c r="Z61" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA61" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB61" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -5750,9 +6716,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B63" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL DIRTY", "", "", ""]</t>
+      <c r="B63" s="0"/>
+      <c r="C63" s="0"/>
+      <c r="D63" s="0"/>
+      <c r="E63" s="0"/>
+      <c r="F63" s="0"/>
+      <c r="G63" s="0"/>
+      <c r="H63" s="0"/>
+      <c r="I63" s="0"/>
+      <c r="J63" s="0"/>
+      <c r="K63" s="0"/>
+      <c r="L63" s="0"/>
+      <c r="M63" s="4"/>
+      <c r="N63" s="0"/>
+      <c r="O63" s="0"/>
+      <c r="P63" s="0"/>
+      <c r="Q63" s="0"/>
+      <c r="R63" s="0"/>
+      <c r="S63" s="0"/>
+      <c r="T63" s="0"/>
+      <c r="U63" s="4"/>
+      <c r="V63" s="0"/>
+      <c r="W63" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X63" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y63" s="0" t="inlineStr">
+        <is>
+          <t>INTERIOR PANEL DIRTY</t>
+        </is>
+      </c>
+      <c r="Z63" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA63" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB63" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>

--- a/reports/_HAPAG LIOYD AG_SUMMIT ALLIANCE PORT LIMITED (OCL)_container_report_2018-12-03_54_.xlsx
+++ b/reports/_HAPAG LIOYD AG_SUMMIT ALLIANCE PORT LIMITED (OCL)_container_report_2018-12-03_54_.xlsx
@@ -1362,7 +1362,7 @@
     <row ht="16" customHeight="true" r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>Total number of conatiners:36</t>
+          <t>Total number of containers:36</t>
         </is>
       </c>
     </row>
